--- a/produits.xlsx
+++ b/produits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>produit</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>joprox 100g</t>
+  </si>
+  <si>
+    <t>dexametazone 100ml</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,15 +1283,15 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="11">
-        <f>MAX(C3,D3,E3,F3)</f>
+        <f t="shared" ref="G3:G34" si="0">MAX(C3,D3,E3,F3)</f>
         <v>500</v>
       </c>
       <c r="H3" s="12">
-        <f>MIN(C3:F3)</f>
+        <f t="shared" ref="H3:H34" si="1">MIN(C3:F3)</f>
         <v>500</v>
       </c>
       <c r="I3" s="6">
-        <f>G3-H3</f>
+        <f t="shared" ref="I3:I34" si="2">G3-H3</f>
         <v>0</v>
       </c>
     </row>
@@ -1304,15 +1307,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11">
-        <f>MAX(C4,D4,E4,F4)</f>
+        <f t="shared" si="0"/>
         <v>1045</v>
       </c>
       <c r="H4" s="12">
-        <f>MIN(C4:F4)</f>
+        <f t="shared" si="1"/>
         <v>1045</v>
       </c>
       <c r="I4" s="6">
-        <f>G4-H4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1328,15 +1331,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="11">
-        <f>MAX(C5,D5,E5,F5)</f>
+        <f t="shared" si="0"/>
         <v>2810</v>
       </c>
       <c r="H5" s="12">
-        <f>MIN(C5:F5)</f>
+        <f t="shared" si="1"/>
         <v>2810</v>
       </c>
       <c r="I5" s="6">
-        <f>G5-H5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1352,15 +1355,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="11">
-        <f>MAX(C6,D6,E6,F6)</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="H6" s="12">
-        <f>MIN(C6:F6)</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="I6" s="6">
-        <f>G6-H6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1376,15 +1379,15 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="11">
-        <f>MAX(C7,D7,E7,F7)</f>
+        <f t="shared" si="0"/>
         <v>470</v>
       </c>
       <c r="H7" s="12">
-        <f>MIN(C7:F7)</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="I7" s="6">
-        <f>G7-H7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1400,15 +1403,15 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="11">
-        <f>MAX(C8,D8,E8,F8)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="H8" s="12">
-        <f>MIN(C8:F8)</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="I8" s="6">
-        <f>G8-H8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1426,15 +1429,15 @@
         <v>300</v>
       </c>
       <c r="G9" s="11">
-        <f>MAX(C9,D9,E9,F9)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="H9" s="12">
-        <f>MIN(C9:F9)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="I9" s="6">
-        <f>G9-H9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1454,15 +1457,15 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="11">
-        <f>MAX(C10,D10,E10,F10)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="H10" s="12">
-        <f>MIN(C10:F10)</f>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="I10" s="6">
-        <f>G10-H10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -1478,15 +1481,15 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="11">
-        <f>MAX(C11,D11,E11,F11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="12">
-        <f>MIN(C11:F11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f>G11-H11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1506,15 +1509,15 @@
         <v>370</v>
       </c>
       <c r="G12" s="11">
-        <f>MAX(C12,D12,E12,F12)</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="H12" s="12">
-        <f>MIN(C12:F12)</f>
+        <f t="shared" si="1"/>
         <v>370</v>
       </c>
       <c r="I12" s="6">
-        <f>G12-H12</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -1530,15 +1533,15 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="11">
-        <f>MAX(C13,D13,E13,F13)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="H13" s="12">
-        <f>MIN(C13:F13)</f>
+        <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="I13" s="6">
-        <f>G13-H13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1556,15 +1559,15 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="11">
-        <f>MAX(C14,D14,E14,F14)</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
       <c r="H14" s="12">
-        <f>MIN(C14:F14)</f>
+        <f t="shared" si="1"/>
         <v>6400</v>
       </c>
       <c r="I14" s="6">
-        <f>G14-H14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1584,15 +1587,15 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="11">
-        <f>MAX(C15,D15,E15,F15)</f>
+        <f t="shared" si="0"/>
         <v>3340</v>
       </c>
       <c r="H15" s="12">
-        <f>MIN(C15:F15)</f>
+        <f t="shared" si="1"/>
         <v>3300</v>
       </c>
       <c r="I15" s="6">
-        <f>G15-H15</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -1610,15 +1613,15 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="11">
-        <f>MAX(C16,D16,E16,F16)</f>
+        <f t="shared" si="0"/>
         <v>889</v>
       </c>
       <c r="H16" s="12">
-        <f>MIN(C16:F16)</f>
+        <f t="shared" si="1"/>
         <v>889</v>
       </c>
       <c r="I16" s="6">
-        <f>G16-H16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1636,15 +1639,15 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="11">
-        <f>MAX(C17,D17,E17,F17)</f>
+        <f t="shared" si="0"/>
         <v>541</v>
       </c>
       <c r="H17" s="12">
-        <f>MIN(C17:F17)</f>
+        <f t="shared" si="1"/>
         <v>541</v>
       </c>
       <c r="I17" s="6">
-        <f>G17-H17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1660,15 +1663,15 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="11">
-        <f>MAX(C18,D18,E18,F18)</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="H18" s="12">
-        <f>MIN(C18:F18)</f>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="I18" s="6">
-        <f>G18-H18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1686,15 +1689,15 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="11">
-        <f>MAX(C19,D19,E19,F19)</f>
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="H19" s="12">
-        <f>MIN(C19:F19)</f>
+        <f t="shared" si="1"/>
         <v>1900</v>
       </c>
       <c r="I19" s="6">
-        <f>G19-H19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1712,15 +1715,15 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="11">
-        <f>MAX(C20,D20,E20,F20)</f>
+        <f t="shared" si="0"/>
         <v>580</v>
       </c>
       <c r="H20" s="12">
-        <f>MIN(C20:F20)</f>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="I20" s="6">
-        <f>G20-H20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1736,15 +1739,15 @@
         <v>2080</v>
       </c>
       <c r="G21" s="11">
-        <f>MAX(C21,D21,E21,F21)</f>
+        <f t="shared" si="0"/>
         <v>2080</v>
       </c>
       <c r="H21" s="12">
-        <f>MIN(C21:F21)</f>
+        <f t="shared" si="1"/>
         <v>2080</v>
       </c>
       <c r="I21" s="3">
-        <f>G21-H21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1762,15 +1765,15 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="11">
-        <f>MAX(C22,D22,E22,F22)</f>
+        <f t="shared" si="0"/>
         <v>1150</v>
       </c>
       <c r="H22" s="12">
-        <f>MIN(C22:F22)</f>
+        <f t="shared" si="1"/>
         <v>1150</v>
       </c>
       <c r="I22" s="6">
-        <f>G22-H22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1788,15 +1791,15 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="11">
-        <f>MAX(C23,D23,E23,F23)</f>
+        <f t="shared" si="0"/>
         <v>1120</v>
       </c>
       <c r="H23" s="12">
-        <f>MIN(C23:F23)</f>
+        <f t="shared" si="1"/>
         <v>1120</v>
       </c>
       <c r="I23" s="6">
-        <f>G23-H23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1814,15 +1817,15 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="11">
-        <f>MAX(C24,D24,E24,F24)</f>
+        <f t="shared" si="0"/>
         <v>920</v>
       </c>
       <c r="H24" s="12">
-        <f>MIN(C24:F24)</f>
+        <f t="shared" si="1"/>
         <v>920</v>
       </c>
       <c r="I24" s="6">
-        <f>G24-H24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1844,15 +1847,15 @@
         <v>210</v>
       </c>
       <c r="G25" s="11">
-        <f>MAX(C25,D25,E25,F25)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="H25" s="12">
-        <f>MIN(C25:F25)</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="I25" s="6">
-        <f>G25-H25</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -1868,15 +1871,15 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="11">
-        <f>MAX(C26,D26,E26,F26)</f>
+        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="H26" s="12">
-        <f>MIN(C26:F26)</f>
+        <f t="shared" si="1"/>
         <v>1230</v>
       </c>
       <c r="I26" s="6">
-        <f>G26-H26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1892,15 +1895,15 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="11">
-        <f>MAX(C27,D27,E27,F27)</f>
+        <f t="shared" si="0"/>
         <v>665</v>
       </c>
       <c r="H27" s="12">
-        <f>MIN(C27:F27)</f>
+        <f t="shared" si="1"/>
         <v>665</v>
       </c>
       <c r="I27" s="6">
-        <f>G27-H27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1918,15 +1921,15 @@
         <v>530</v>
       </c>
       <c r="G28" s="11">
-        <f>MAX(C28,D28,E28,F28)</f>
+        <f t="shared" si="0"/>
         <v>530</v>
       </c>
       <c r="H28" s="12">
-        <f>MIN(C28:F28)</f>
+        <f t="shared" si="1"/>
         <v>530</v>
       </c>
       <c r="I28" s="6">
-        <f>G28-H28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1942,15 +1945,15 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="11">
-        <f>MAX(C29,D29,E29,F29)</f>
+        <f t="shared" si="0"/>
         <v>1170</v>
       </c>
       <c r="H29" s="12">
-        <f>MIN(C29:F29)</f>
+        <f t="shared" si="1"/>
         <v>1170</v>
       </c>
       <c r="I29" s="6">
-        <f>G29-H29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1968,15 +1971,15 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="11">
-        <f>MAX(C30,D30,E30,F30)</f>
+        <f t="shared" si="0"/>
         <v>570</v>
       </c>
       <c r="H30" s="12">
-        <f>MIN(C30:F30)</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="I30" s="6">
-        <f>G30-H30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1992,15 +1995,15 @@
         <v>400</v>
       </c>
       <c r="G31" s="11">
-        <f>MAX(C31,D31,E31,F31)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="H31" s="12">
-        <f>MIN(C31:F31)</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="I31" s="6">
-        <f>G31-H31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2016,15 +2019,15 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="11">
-        <f>MAX(C32,D32,E32,F32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="12">
-        <f>MIN(C32:F32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="6">
-        <f>G32-H32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2046,15 +2049,15 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="11">
-        <f>MAX(C33,D33,E33,F33)</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="H33" s="12">
-        <f>MIN(C33:F33)</f>
+        <f t="shared" si="1"/>
         <v>1650</v>
       </c>
       <c r="I33" s="6">
-        <f>G33-H33</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -2072,15 +2075,15 @@
         <v>1400</v>
       </c>
       <c r="G34" s="11">
-        <f>MAX(C34,D34,E34,F34)</f>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="H34" s="12">
-        <f>MIN(C34:F34)</f>
+        <f t="shared" si="1"/>
         <v>1320</v>
       </c>
       <c r="I34" s="6">
-        <f>G34-H34</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -2098,15 +2101,15 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="11">
-        <f>MAX(C35,D35,E35,F35)</f>
+        <f t="shared" ref="G35:G66" si="3">MAX(C35,D35,E35,F35)</f>
         <v>5100</v>
       </c>
       <c r="H35" s="12">
-        <f>MIN(C35:F35)</f>
+        <f t="shared" ref="H35:H66" si="4">MIN(C35:F35)</f>
         <v>5100</v>
       </c>
       <c r="I35" s="6">
-        <f>G35-H35</f>
+        <f t="shared" ref="I35:I66" si="5">G35-H35</f>
         <v>0</v>
       </c>
     </row>
@@ -2124,15 +2127,15 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="11">
-        <f>MAX(C36,D36,E36,F36)</f>
+        <f t="shared" si="3"/>
         <v>1168</v>
       </c>
       <c r="H36" s="12">
-        <f>MIN(C36:F36)</f>
+        <f t="shared" si="4"/>
         <v>1168</v>
       </c>
       <c r="I36" s="6">
-        <f>G36-H36</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2148,15 +2151,15 @@
         <v>720</v>
       </c>
       <c r="G37" s="11">
-        <f>MAX(C37,D37,E37,F37)</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="H37" s="12">
-        <f>MIN(C37:F37)</f>
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
       <c r="I37" s="6">
-        <f>G37-H37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2174,15 +2177,15 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="11">
-        <f>MAX(C38,D38,E38,F38)</f>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="H38" s="12">
-        <f>MIN(C38:F38)</f>
+        <f t="shared" si="4"/>
         <v>1400</v>
       </c>
       <c r="I38" s="6">
-        <f>G38-H38</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2198,15 +2201,15 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="11">
-        <f>MAX(C39,D39,E39,F39)</f>
+        <f t="shared" si="3"/>
         <v>810</v>
       </c>
       <c r="H39" s="12">
-        <f>MIN(C39:F39)</f>
+        <f t="shared" si="4"/>
         <v>810</v>
       </c>
       <c r="I39" s="6">
-        <f>G39-H39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2222,15 +2225,15 @@
         <v>520</v>
       </c>
       <c r="G40" s="11">
-        <f>MAX(C40,D40,E40,F40)</f>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="H40" s="12">
-        <f>MIN(C40:F40)</f>
+        <f t="shared" si="4"/>
         <v>520</v>
       </c>
       <c r="I40" s="6">
-        <f>G40-H40</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2250,15 +2253,15 @@
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="11">
-        <f>MAX(C41,D41,E41,F41)</f>
+        <f t="shared" si="3"/>
         <v>880</v>
       </c>
       <c r="H41" s="12">
-        <f>MIN(C41:F41)</f>
+        <f t="shared" si="4"/>
         <v>850</v>
       </c>
       <c r="I41" s="6">
-        <f>G41-H41</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -2278,15 +2281,15 @@
         <v>270</v>
       </c>
       <c r="G42" s="11">
-        <f>MAX(C42,D42,E42,F42)</f>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="H42" s="12">
-        <f>MIN(C42:F42)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="I42" s="6">
-        <f>G42-H42</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -2304,15 +2307,15 @@
         <v>720</v>
       </c>
       <c r="G43" s="11">
-        <f>MAX(C43,D43,E43,F43)</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="H43" s="12">
-        <f>MIN(C43:F43)</f>
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
       <c r="I43" s="6">
-        <f>G43-H43</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,15 +2333,15 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="11">
-        <f>MAX(C44,D44,E44,F44)</f>
+        <f t="shared" si="3"/>
         <v>1120</v>
       </c>
       <c r="H44" s="12">
-        <f>MIN(C44:F44)</f>
+        <f t="shared" si="4"/>
         <v>1120</v>
       </c>
       <c r="I44" s="6">
-        <f>G44-H44</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2356,15 +2359,15 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="11">
-        <f>MAX(C45,D45,E45,F45)</f>
+        <f t="shared" si="3"/>
         <v>6349</v>
       </c>
       <c r="H45" s="12">
-        <f>MIN(C45:F45)</f>
+        <f t="shared" si="4"/>
         <v>6349</v>
       </c>
       <c r="I45" s="3">
-        <f>G45-H45</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2382,15 +2385,15 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="11">
-        <f>MAX(C46,D46,E46,F46)</f>
+        <f t="shared" si="3"/>
         <v>2060</v>
       </c>
       <c r="H46" s="12">
-        <f>MIN(C46:F46)</f>
+        <f t="shared" si="4"/>
         <v>2060</v>
       </c>
       <c r="I46" s="6">
-        <f>G46-H46</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2406,15 +2409,15 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="11">
-        <f>MAX(C47,D47,E47,F47)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="12">
-        <f>MIN(C47:F47)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="6">
-        <f>G47-H47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2430,15 +2433,15 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="11">
-        <f>MAX(C48,D48,E48,F48)</f>
+        <f t="shared" si="3"/>
         <v>1180</v>
       </c>
       <c r="H48" s="12">
-        <f>MIN(C48:F48)</f>
+        <f t="shared" si="4"/>
         <v>1180</v>
       </c>
       <c r="I48" s="6">
-        <f>G48-H48</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2454,15 +2457,15 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="11">
-        <f>MAX(C49,D49,E49,F49)</f>
+        <f t="shared" si="3"/>
         <v>2700</v>
       </c>
       <c r="H49" s="12">
-        <f>MIN(C49:F49)</f>
+        <f t="shared" si="4"/>
         <v>2700</v>
       </c>
       <c r="I49" s="6">
-        <f>G49-H49</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2478,15 +2481,15 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="11">
-        <f>MAX(C50,D50,E50,F50)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="12">
-        <f>MIN(C50:F50)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I50" s="6">
-        <f>G50-H50</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2504,15 +2507,15 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="11">
-        <f>MAX(C51,D51,E51,F51)</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="H51" s="12">
-        <f>MIN(C51:F51)</f>
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
       <c r="I51" s="6">
-        <f>G51-H51</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2530,15 +2533,15 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="11">
-        <f>MAX(C52,D52,E52,F52)</f>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
       <c r="H52" s="12">
-        <f>MIN(C52:F52)</f>
+        <f t="shared" si="4"/>
         <v>1350</v>
       </c>
       <c r="I52" s="6">
-        <f>G52-H52</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -2554,15 +2557,15 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="11">
-        <f>MAX(C53,D53,E53,F53)</f>
+        <f t="shared" si="3"/>
         <v>735</v>
       </c>
       <c r="H53" s="12">
-        <f>MIN(C53:F53)</f>
+        <f t="shared" si="4"/>
         <v>735</v>
       </c>
       <c r="I53" s="6">
-        <f>G53-H53</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2578,15 +2581,15 @@
         <v>290</v>
       </c>
       <c r="G54" s="11">
-        <f>MAX(C54,D54,E54,F54)</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="H54" s="12">
-        <f>MIN(C54:F54)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="I54" s="6">
-        <f>G54-H54</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2604,15 +2607,15 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="11">
-        <f>MAX(C55,D55,E55,F55)</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="H55" s="12">
-        <f>MIN(C55:F55)</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="I55" s="6">
-        <f>G55-H55</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2630,15 +2633,15 @@
         <v>370</v>
       </c>
       <c r="G56" s="11">
-        <f>MAX(C56,D56,E56,F56)</f>
+        <f t="shared" si="3"/>
         <v>370</v>
       </c>
       <c r="H56" s="12">
-        <f>MIN(C56:F56)</f>
+        <f t="shared" si="4"/>
         <v>370</v>
       </c>
       <c r="I56" s="6">
-        <f>G56-H56</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2654,15 +2657,15 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="11">
-        <f>MAX(C57,D57,E57,F57)</f>
+        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
       <c r="H57" s="12">
-        <f>MIN(C57:F57)</f>
+        <f t="shared" si="4"/>
         <v>1980</v>
       </c>
       <c r="I57" s="6">
-        <f>G57-H57</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2678,15 +2681,15 @@
         <v>560</v>
       </c>
       <c r="G58" s="11">
-        <f>MAX(C58,D58,E58,F58)</f>
+        <f t="shared" si="3"/>
         <v>560</v>
       </c>
       <c r="H58" s="12">
-        <f>MIN(C58:F58)</f>
+        <f t="shared" si="4"/>
         <v>560</v>
       </c>
       <c r="I58" s="6">
-        <f>G58-H58</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2702,15 +2705,15 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="11">
-        <f>MAX(C59,D59,E59,F59)</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="H59" s="12">
-        <f>MIN(C59:F59)</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="I59" s="6">
-        <f>G59-H59</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2728,15 +2731,15 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="11">
-        <f>MAX(C60,D60,E60,F60)</f>
+        <f t="shared" si="3"/>
         <v>8700</v>
       </c>
       <c r="H60" s="12">
-        <f>MIN(C60:F60)</f>
+        <f t="shared" si="4"/>
         <v>8700</v>
       </c>
       <c r="I60" s="6">
-        <f>G60-H60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2754,15 +2757,15 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="11">
-        <f>MAX(C61,D61,E61,F61)</f>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="H61" s="12">
-        <f>MIN(C61:F61)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="I61" s="6">
-        <f>G61-H61</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2778,15 +2781,15 @@
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="11">
-        <f>MAX(C62,D62,E62,F62)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H62" s="12">
-        <f>MIN(C62:F62)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I62" s="6">
-        <f>G62-H62</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2802,15 +2805,15 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="11">
-        <f>MAX(C63,D63,E63,F63)</f>
+        <f t="shared" si="3"/>
         <v>1670</v>
       </c>
       <c r="H63" s="12">
-        <f>MIN(C63:F63)</f>
+        <f t="shared" si="4"/>
         <v>1670</v>
       </c>
       <c r="I63" s="6">
-        <f>G63-H63</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2828,15 +2831,15 @@
         <v>150</v>
       </c>
       <c r="G64" s="11">
-        <f>MAX(C64,D64,E64,F64)</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="H64" s="12">
-        <f>MIN(C64:F64)</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="I64" s="6">
-        <f>G64-H64</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2854,15 +2857,15 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="11">
-        <f>MAX(C65,D65,E65,F65)</f>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="H65" s="12">
-        <f>MIN(C65:F65)</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="I65" s="6">
-        <f>G65-H65</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2878,15 +2881,15 @@
         <v>2500</v>
       </c>
       <c r="G66" s="11">
-        <f>MAX(C66,D66,E66,F66)</f>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="H66" s="12">
-        <f>MIN(C66:F66)</f>
+        <f t="shared" si="4"/>
         <v>2500</v>
       </c>
       <c r="I66" s="6">
-        <f>G66-H66</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2904,15 +2907,15 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="11">
-        <f>MAX(C67,D67,E67,F67)</f>
+        <f t="shared" ref="G67:G98" si="6">MAX(C67,D67,E67,F67)</f>
         <v>380</v>
       </c>
       <c r="H67" s="12">
-        <f>MIN(C67:F67)</f>
+        <f t="shared" ref="H67:H98" si="7">MIN(C67:F67)</f>
         <v>380</v>
       </c>
       <c r="I67" s="6">
-        <f>G67-H67</f>
+        <f t="shared" ref="I67:I98" si="8">G67-H67</f>
         <v>0</v>
       </c>
     </row>
@@ -2928,15 +2931,15 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="11">
-        <f>MAX(C68,D68,E68,F68)</f>
+        <f t="shared" si="6"/>
         <v>1233</v>
       </c>
       <c r="H68" s="12">
-        <f>MIN(C68:F68)</f>
+        <f t="shared" si="7"/>
         <v>1233</v>
       </c>
       <c r="I68" s="6">
-        <f>G68-H68</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2953,15 +2956,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="11">
-        <f>MAX(C69,D69,E69,F69)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H69" s="12">
-        <f>MIN(C69:F69)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I69" s="3">
-        <f>G69-H69</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2977,15 +2980,15 @@
         <v>3600</v>
       </c>
       <c r="G70" s="11">
-        <f>MAX(C70,D70,E70,F70)</f>
+        <f t="shared" si="6"/>
         <v>3600</v>
       </c>
       <c r="H70" s="12">
-        <f>MIN(C70:F70)</f>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
       <c r="I70" s="6">
-        <f>G70-H70</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3001,15 +3004,15 @@
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="11">
-        <f>MAX(C71,D71,E71,F71)</f>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="H71" s="12">
-        <f>MIN(C71:F71)</f>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="I71" s="6">
-        <f>G71-H71</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3025,15 +3028,15 @@
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="11">
-        <f>MAX(C72,D72,E72,F72)</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="H72" s="12">
-        <f>MIN(C72:F72)</f>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="I72" s="6">
-        <f>G72-H72</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3052,15 +3055,15 @@
         <v>1700</v>
       </c>
       <c r="G73" s="11">
-        <f>MAX(C73,D73,E73,F73)</f>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="H73" s="12">
-        <f>MIN(C73:F73)</f>
+        <f t="shared" si="7"/>
         <v>1700</v>
       </c>
       <c r="I73" s="3">
-        <f>G73-H73</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3076,15 +3079,15 @@
         <v>1200</v>
       </c>
       <c r="G74" s="11">
-        <f>MAX(C74,D74,E74,F74)</f>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="H74" s="12">
-        <f>MIN(C74:F74)</f>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="I74" s="6">
-        <f>G74-H74</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3100,15 +3103,15 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="11">
-        <f>MAX(C75,D75,E75,F75)</f>
+        <f t="shared" si="6"/>
         <v>650</v>
       </c>
       <c r="H75" s="12">
-        <f>MIN(C75:F75)</f>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="I75" s="6">
-        <f>G75-H75</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3128,15 +3131,15 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="11">
-        <f>MAX(C76,D76,E76,F76)</f>
+        <f t="shared" si="6"/>
         <v>464</v>
       </c>
       <c r="H76" s="12">
-        <f>MIN(C76:F76)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="I76" s="6">
-        <f>G76-H76</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -3152,15 +3155,15 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="11">
-        <f>MAX(C77,D77,E77,F77)</f>
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
       <c r="H77" s="12">
-        <f>MIN(C77:F77)</f>
+        <f t="shared" si="7"/>
         <v>3500</v>
       </c>
       <c r="I77" s="6">
-        <f>G77-H77</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3176,15 +3179,15 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="11">
-        <f>MAX(C78,D78,E78,F78)</f>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="H78" s="12">
-        <f>MIN(C78:F78)</f>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="I78" s="6">
-        <f>G78-H78</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3200,15 +3203,15 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="11">
-        <f>MAX(C79,D79,E79,F79)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H79" s="12">
-        <f>MIN(C79:F79)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I79" s="6">
-        <f>G79-H79</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3228,15 +3231,15 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="11">
-        <f>MAX(C80,D80,E80,F80)</f>
+        <f t="shared" si="6"/>
         <v>1220</v>
       </c>
       <c r="H80" s="12">
-        <f>MIN(C80:F80)</f>
+        <f t="shared" si="7"/>
         <v>1180</v>
       </c>
       <c r="I80" s="6">
-        <f>G80-H80</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
@@ -3256,15 +3259,15 @@
         <v>1080</v>
       </c>
       <c r="G81" s="11">
-        <f>MAX(C81,D81,E81,F81)</f>
+        <f t="shared" si="6"/>
         <v>1140</v>
       </c>
       <c r="H81" s="12">
-        <f>MIN(C81:F81)</f>
+        <f t="shared" si="7"/>
         <v>1080</v>
       </c>
       <c r="I81" s="6">
-        <f>G81-H81</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
@@ -3282,15 +3285,15 @@
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="11">
-        <f>MAX(C82,D82,E82,F82)</f>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="H82" s="12">
-        <f>MIN(C82:F82)</f>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="I82" s="6">
-        <f>G82-H82</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3306,15 +3309,15 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="11">
-        <f>MAX(C83,D83,E83,F83)</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="H83" s="12">
-        <f>MIN(C83:F83)</f>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="I83" s="6">
-        <f>G83-H83</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3330,15 +3333,15 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="11">
-        <f>MAX(C84,D84,E84,F84)</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="H84" s="12">
-        <f>MIN(C84:F84)</f>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="I84" s="6">
-        <f>G84-H84</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3358,15 +3361,15 @@
         <v>520</v>
       </c>
       <c r="G85" s="11">
-        <f>MAX(C85,D85,E85,F85)</f>
+        <f t="shared" si="6"/>
         <v>520</v>
       </c>
       <c r="H85" s="12">
-        <f>MIN(C85:F85)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="I85" s="6">
-        <f>G85-H85</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -3384,15 +3387,15 @@
         <v>220</v>
       </c>
       <c r="G86" s="11">
-        <f>MAX(C86,D86,E86,F86)</f>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="H86" s="12">
-        <f>MIN(C86:F86)</f>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="I86" s="6">
-        <f>G86-H86</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -3410,15 +3413,15 @@
         <v>410</v>
       </c>
       <c r="G87" s="11">
-        <f>MAX(C87,D87,E87,F87)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="H87" s="12">
-        <f>MIN(C87:F87)</f>
+        <f t="shared" si="7"/>
         <v>410</v>
       </c>
       <c r="I87" s="6">
-        <f>G87-H87</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3440,15 +3443,15 @@
         <v>210</v>
       </c>
       <c r="G88" s="11">
-        <f>MAX(C88,D88,E88,F88)</f>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="H88" s="12">
-        <f>MIN(C88:F88)</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="I88" s="6">
-        <f>G88-H88</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -3464,15 +3467,15 @@
         <v>1210</v>
       </c>
       <c r="G89" s="11">
-        <f>MAX(C89,D89,E89,F89)</f>
+        <f t="shared" si="6"/>
         <v>1210</v>
       </c>
       <c r="H89" s="12">
-        <f>MIN(C89:F89)</f>
+        <f t="shared" si="7"/>
         <v>1210</v>
       </c>
       <c r="I89" s="6">
-        <f>G89-H89</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3492,15 +3495,15 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="11">
-        <f>MAX(C90,D90,E90,F90)</f>
+        <f t="shared" si="6"/>
         <v>993</v>
       </c>
       <c r="H90" s="12">
-        <f>MIN(C90:F90)</f>
+        <f t="shared" si="7"/>
         <v>950</v>
       </c>
       <c r="I90" s="6">
-        <f>G90-H90</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
@@ -3518,15 +3521,15 @@
         <v>1450</v>
       </c>
       <c r="G91" s="11">
-        <f>MAX(C91,D91,E91,F91)</f>
+        <f t="shared" si="6"/>
         <v>1450</v>
       </c>
       <c r="H91" s="12">
-        <f>MIN(C91:F91)</f>
+        <f t="shared" si="7"/>
         <v>1450</v>
       </c>
       <c r="I91" s="3">
-        <f>G91-H91</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3546,15 +3549,15 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="11">
-        <f>MAX(C92,D92,E92,F92)</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="H92" s="12">
-        <f>MIN(C92:F92)</f>
+        <f t="shared" si="7"/>
         <v>1420</v>
       </c>
       <c r="I92" s="6">
-        <f>G92-H92</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
     </row>
@@ -3570,15 +3573,15 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="11">
-        <f>MAX(C93,D93,E93,F93)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H93" s="12">
-        <f>MIN(C93:F93)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I93" s="6">
-        <f>G93-H93</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +3593,7 @@
         <v>800</v>
       </c>
       <c r="C94" s="5">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5">
@@ -3598,16 +3601,16 @@
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="11">
-        <f>MAX(C94,D94,E94,F94)</f>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="H94" s="12">
-        <f>MIN(C94:F94)</f>
-        <v>470</v>
+        <f t="shared" si="7"/>
+        <v>480</v>
       </c>
       <c r="I94" s="6">
-        <f>G94-H94</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -3622,15 +3625,15 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="11">
-        <f>MAX(C95,D95,E95,F95)</f>
+        <f t="shared" si="6"/>
         <v>850</v>
       </c>
       <c r="H95" s="12">
-        <f>MIN(C95:F95)</f>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="I95" s="6">
-        <f>G95-H95</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3646,15 +3649,15 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="11">
-        <f>MAX(C96,D96,E96,F96)</f>
+        <f t="shared" si="6"/>
         <v>1460</v>
       </c>
       <c r="H96" s="12">
-        <f>MIN(C96:F96)</f>
+        <f t="shared" si="7"/>
         <v>1460</v>
       </c>
       <c r="I96" s="6">
-        <f>G96-H96</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3670,15 +3673,15 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="11">
-        <f>MAX(C97,D97,E97,F97)</f>
+        <f t="shared" si="6"/>
         <v>850</v>
       </c>
       <c r="H97" s="12">
-        <f>MIN(C97:F97)</f>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="I97" s="6">
-        <f>G97-H97</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3694,15 +3697,15 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="11">
-        <f>MAX(C98,D98,E98,F98)</f>
+        <f t="shared" si="6"/>
         <v>3150</v>
       </c>
       <c r="H98" s="12">
-        <f>MIN(C98:F98)</f>
+        <f t="shared" si="7"/>
         <v>3150</v>
       </c>
       <c r="I98" s="6">
-        <f>G98-H98</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3721,15 +3724,15 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="11">
-        <f>MAX(C99,D99,E99,F99)</f>
+        <f t="shared" ref="G99:G130" si="9">MAX(C99,D99,E99,F99)</f>
         <v>420</v>
       </c>
       <c r="H99" s="12">
-        <f>MIN(C99:F99)</f>
+        <f t="shared" ref="H99:H130" si="10">MIN(C99:F99)</f>
         <v>420</v>
       </c>
       <c r="I99" s="3">
-        <f>G99-H99</f>
+        <f t="shared" ref="I99:I130" si="11">G99-H99</f>
         <v>0</v>
       </c>
     </row>
@@ -3749,15 +3752,15 @@
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="11">
-        <f>MAX(C100,D100,E100,F100)</f>
+        <f t="shared" si="9"/>
         <v>900</v>
       </c>
       <c r="H100" s="12">
-        <f>MIN(C100:F100)</f>
+        <f t="shared" si="10"/>
         <v>890</v>
       </c>
       <c r="I100" s="6">
-        <f>G100-H100</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
@@ -3775,15 +3778,15 @@
         <v>1020</v>
       </c>
       <c r="G101" s="11">
-        <f>MAX(C101,D101,E101,F101)</f>
+        <f t="shared" si="9"/>
         <v>1021</v>
       </c>
       <c r="H101" s="12">
-        <f>MIN(C101:F101)</f>
+        <f t="shared" si="10"/>
         <v>1020</v>
       </c>
       <c r="I101" s="6">
-        <f>G101-H101</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3799,15 +3802,15 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="11">
-        <f>MAX(C102,D102,E102,F102)</f>
+        <f t="shared" si="9"/>
         <v>1140</v>
       </c>
       <c r="H102" s="12">
-        <f>MIN(C102:F102)</f>
+        <f t="shared" si="10"/>
         <v>1140</v>
       </c>
       <c r="I102" s="6">
-        <f>G102-H102</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3823,15 +3826,15 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="11">
-        <f>MAX(C103,D103,E103,F103)</f>
+        <f t="shared" si="9"/>
         <v>925</v>
       </c>
       <c r="H103" s="12">
-        <f>MIN(C103:F103)</f>
+        <f t="shared" si="10"/>
         <v>925</v>
       </c>
       <c r="I103" s="6">
-        <f>G103-H103</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3847,15 +3850,15 @@
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="11">
-        <f>MAX(C104,D104,E104,F104)</f>
+        <f t="shared" si="9"/>
         <v>2150</v>
       </c>
       <c r="H104" s="12">
-        <f>MIN(C104:F104)</f>
+        <f t="shared" si="10"/>
         <v>2150</v>
       </c>
       <c r="I104" s="6">
-        <f>G104-H104</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3871,15 +3874,15 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="11">
-        <f>MAX(C105,D105,E105,F105)</f>
+        <f t="shared" si="9"/>
         <v>638</v>
       </c>
       <c r="H105" s="12">
-        <f>MIN(C105:F105)</f>
+        <f t="shared" si="10"/>
         <v>638</v>
       </c>
       <c r="I105" s="6">
-        <f>G105-H105</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3897,15 +3900,15 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="11">
-        <f>MAX(C106,D106,E106,F106)</f>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="H106" s="12">
-        <f>MIN(C106:F106)</f>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="I106" s="6">
-        <f>G106-H106</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3923,15 +3926,15 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="11">
-        <f>MAX(C107,D107,E107,F107)</f>
+        <f t="shared" si="9"/>
         <v>4600</v>
       </c>
       <c r="H107" s="12">
-        <f>MIN(C107:F107)</f>
+        <f t="shared" si="10"/>
         <v>4600</v>
       </c>
       <c r="I107" s="3">
-        <f>G107-H107</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3947,15 +3950,15 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="11">
-        <f>MAX(C108,D108,E108,F108)</f>
+        <f t="shared" si="9"/>
         <v>1900</v>
       </c>
       <c r="H108" s="12">
-        <f>MIN(C108:F108)</f>
+        <f t="shared" si="10"/>
         <v>1900</v>
       </c>
       <c r="I108" s="6">
-        <f>G108-H108</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3971,15 +3974,15 @@
         <v>1020</v>
       </c>
       <c r="G109" s="11">
-        <f>MAX(C109,D109,E109,F109)</f>
+        <f t="shared" si="9"/>
         <v>1020</v>
       </c>
       <c r="H109" s="12">
-        <f>MIN(C109:F109)</f>
+        <f t="shared" si="10"/>
         <v>1020</v>
       </c>
       <c r="I109" s="6">
-        <f>G109-H109</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3997,15 +4000,15 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="11">
-        <f>MAX(C110,D110,E110,F110)</f>
+        <f t="shared" si="9"/>
         <v>7845</v>
       </c>
       <c r="H110" s="12">
-        <f>MIN(C110:F110)</f>
+        <f t="shared" si="10"/>
         <v>7845</v>
       </c>
       <c r="I110" s="3">
-        <f>G110-H110</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4021,15 +4024,15 @@
         <v>2400</v>
       </c>
       <c r="G111" s="11">
-        <f>MAX(C111,D111,E111,F111)</f>
+        <f t="shared" si="9"/>
         <v>2400</v>
       </c>
       <c r="H111" s="12">
-        <f>MIN(C111:F111)</f>
+        <f t="shared" si="10"/>
         <v>2400</v>
       </c>
       <c r="I111" s="6">
-        <f>G111-H111</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4049,15 +4052,15 @@
         <v>2100</v>
       </c>
       <c r="G112" s="11">
-        <f>MAX(C112,D112,E112,F112)</f>
+        <f t="shared" si="9"/>
         <v>2100</v>
       </c>
       <c r="H112" s="12">
-        <f>MIN(C112:F112)</f>
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
       <c r="I112" s="6">
-        <f>G112-H112</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -4075,15 +4078,15 @@
         <v>2800</v>
       </c>
       <c r="G113" s="11">
-        <f>MAX(C113,D113,E113,F113)</f>
+        <f t="shared" si="9"/>
         <v>2800</v>
       </c>
       <c r="H113" s="12">
-        <f>MIN(C113:F113)</f>
+        <f t="shared" si="10"/>
         <v>2800</v>
       </c>
       <c r="I113" s="6">
-        <f>G113-H113</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4099,15 +4102,15 @@
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="11">
-        <f>MAX(C114,D114,E114,F114)</f>
+        <f t="shared" si="9"/>
         <v>780</v>
       </c>
       <c r="H114" s="12">
-        <f>MIN(C114:F114)</f>
+        <f t="shared" si="10"/>
         <v>780</v>
       </c>
       <c r="I114" s="6">
-        <f>G114-H114</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4127,15 +4130,15 @@
         <v>440</v>
       </c>
       <c r="G115" s="11">
-        <f>MAX(C115,D115,E115,F115)</f>
+        <f t="shared" si="9"/>
         <v>440</v>
       </c>
       <c r="H115" s="12">
-        <f>MIN(C115:F115)</f>
+        <f t="shared" si="10"/>
         <v>440</v>
       </c>
       <c r="I115" s="6">
-        <f>G115-H115</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4153,15 +4156,15 @@
         <v>1780</v>
       </c>
       <c r="G116" s="11">
-        <f>MAX(C116,D116,E116,F116)</f>
+        <f t="shared" si="9"/>
         <v>1780</v>
       </c>
       <c r="H116" s="12">
-        <f>MIN(C116:F116)</f>
+        <f t="shared" si="10"/>
         <v>1780</v>
       </c>
       <c r="I116" s="6">
-        <f>G116-H116</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4179,15 +4182,15 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="11">
-        <f>MAX(C117,D117,E117,F117)</f>
+        <f t="shared" si="9"/>
         <v>1045</v>
       </c>
       <c r="H117" s="12">
-        <f>MIN(C117:F117)</f>
+        <f t="shared" si="10"/>
         <v>1040</v>
       </c>
       <c r="I117" s="6">
-        <f>G117-H117</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -4205,15 +4208,15 @@
         <v>400</v>
       </c>
       <c r="G118" s="11">
-        <f>MAX(C118,D118,E118,F118)</f>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="H118" s="12">
-        <f>MIN(C118:F118)</f>
+        <f t="shared" si="10"/>
         <v>375</v>
       </c>
       <c r="I118" s="6">
-        <f>G118-H118</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
@@ -4229,15 +4232,15 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="11">
-        <f>MAX(C119,D119,E119,F119)</f>
+        <f t="shared" si="9"/>
         <v>435</v>
       </c>
       <c r="H119" s="12">
-        <f>MIN(C119:F119)</f>
+        <f t="shared" si="10"/>
         <v>435</v>
       </c>
       <c r="I119" s="6">
-        <f>G119-H119</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4253,15 +4256,15 @@
         <v>310</v>
       </c>
       <c r="G120" s="11">
-        <f>MAX(C120,D120,E120,F120)</f>
+        <f t="shared" si="9"/>
         <v>310</v>
       </c>
       <c r="H120" s="12">
-        <f>MIN(C120:F120)</f>
+        <f t="shared" si="10"/>
         <v>310</v>
       </c>
       <c r="I120" s="6">
-        <f>G120-H120</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4277,15 +4280,15 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="11">
-        <f>MAX(C121,D121,E121,F121)</f>
+        <f t="shared" si="9"/>
         <v>728</v>
       </c>
       <c r="H121" s="12">
-        <f>MIN(C121:F121)</f>
+        <f t="shared" si="10"/>
         <v>728</v>
       </c>
       <c r="I121" s="6">
-        <f>G121-H121</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4305,15 +4308,15 @@
         <v>490</v>
       </c>
       <c r="G122" s="11">
-        <f>MAX(C122,D122,E122,F122)</f>
+        <f t="shared" si="9"/>
         <v>520</v>
       </c>
       <c r="H122" s="12">
-        <f>MIN(C122:F122)</f>
+        <f t="shared" si="10"/>
         <v>490</v>
       </c>
       <c r="I122" s="6">
-        <f>G122-H122</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
@@ -4329,15 +4332,15 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="11">
-        <f>MAX(C123,D123,E123,F123)</f>
+        <f t="shared" si="9"/>
         <v>780</v>
       </c>
       <c r="H123" s="12">
-        <f>MIN(C123:F123)</f>
+        <f t="shared" si="10"/>
         <v>780</v>
       </c>
       <c r="I123" s="6">
-        <f>G123-H123</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4355,15 +4358,15 @@
         <v>830</v>
       </c>
       <c r="G124" s="11">
-        <f>MAX(C124,D124,E124,F124)</f>
+        <f t="shared" si="9"/>
         <v>910</v>
       </c>
       <c r="H124" s="12">
-        <f>MIN(C124:F124)</f>
+        <f t="shared" si="10"/>
         <v>830</v>
       </c>
       <c r="I124" s="6">
-        <f>G124-H124</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
     </row>
@@ -4379,15 +4382,15 @@
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="11">
-        <f>MAX(C125,D125,E125,F125)</f>
+        <f t="shared" si="9"/>
         <v>1700</v>
       </c>
       <c r="H125" s="12">
-        <f>MIN(C125:F125)</f>
+        <f t="shared" si="10"/>
         <v>1700</v>
       </c>
       <c r="I125" s="6">
-        <f>G125-H125</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4403,15 +4406,15 @@
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="11">
-        <f>MAX(C126,D126,E126,F126)</f>
+        <f t="shared" si="9"/>
         <v>5050</v>
       </c>
       <c r="H126" s="12">
-        <f>MIN(C126:F126)</f>
+        <f t="shared" si="10"/>
         <v>5050</v>
       </c>
       <c r="I126" s="6">
-        <f>G126-H126</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4427,15 +4430,15 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="11">
-        <f>MAX(C127,D127,E127,F127)</f>
+        <f t="shared" si="9"/>
         <v>625</v>
       </c>
       <c r="H127" s="12">
-        <f>MIN(C127:F127)</f>
+        <f t="shared" si="10"/>
         <v>625</v>
       </c>
       <c r="I127" s="6">
-        <f>G127-H127</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4451,15 +4454,15 @@
         <v>550</v>
       </c>
       <c r="G128" s="11">
-        <f>MAX(C128,D128,E128,F128)</f>
+        <f t="shared" si="9"/>
         <v>550</v>
       </c>
       <c r="H128" s="12">
-        <f>MIN(C128:F128)</f>
+        <f t="shared" si="10"/>
         <v>550</v>
       </c>
       <c r="I128" s="6">
-        <f>G128-H128</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4477,15 +4480,15 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="11">
-        <f>MAX(C129,D129,E129,F129)</f>
+        <f t="shared" si="9"/>
         <v>1700</v>
       </c>
       <c r="H129" s="12">
-        <f>MIN(C129:F129)</f>
+        <f t="shared" si="10"/>
         <v>1700</v>
       </c>
       <c r="I129" s="6">
-        <f>G129-H129</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4501,15 +4504,15 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="11">
-        <f>MAX(C130,D130,E130,F130)</f>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="H130" s="12">
-        <f>MIN(C130:F130)</f>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="I130" s="6">
-        <f>G130-H130</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4525,15 +4528,15 @@
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="11">
-        <f>MAX(C131,D131,E131,F131)</f>
+        <f t="shared" ref="G131:G162" si="12">MAX(C131,D131,E131,F131)</f>
         <v>210</v>
       </c>
       <c r="H131" s="12">
-        <f>MIN(C131:F131)</f>
+        <f t="shared" ref="H131:H162" si="13">MIN(C131:F131)</f>
         <v>210</v>
       </c>
       <c r="I131" s="6">
-        <f>G131-H131</f>
+        <f t="shared" ref="I131:I162" si="14">G131-H131</f>
         <v>0</v>
       </c>
     </row>
@@ -4551,15 +4554,15 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="11">
-        <f>MAX(C132,D132,E132,F132)</f>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="H132" s="12">
-        <f>MIN(C132:F132)</f>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="I132" s="6">
-        <f>G132-H132</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4577,15 +4580,15 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="11">
-        <f>MAX(C133,D133,E133,F133)</f>
+        <f t="shared" si="12"/>
         <v>338</v>
       </c>
       <c r="H133" s="12">
-        <f>MIN(C133:F133)</f>
+        <f t="shared" si="13"/>
         <v>338</v>
       </c>
       <c r="I133" s="6">
-        <f>G133-H133</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4603,15 +4606,15 @@
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="11">
-        <f>MAX(C134,D134,E134,F134)</f>
+        <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="H134" s="12">
-        <f>MIN(C134:F134)</f>
+        <f t="shared" si="13"/>
         <v>800</v>
       </c>
       <c r="I134" s="6">
-        <f>G134-H134</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4629,15 +4632,15 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="11">
-        <f>MAX(C135,D135,E135,F135)</f>
+        <f t="shared" si="12"/>
         <v>4270</v>
       </c>
       <c r="H135" s="12">
-        <f>MIN(C135:F135)</f>
+        <f t="shared" si="13"/>
         <v>4270</v>
       </c>
       <c r="I135" s="6">
-        <f>G135-H135</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4653,15 +4656,15 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="11">
-        <f>MAX(C136,D136,E136,F136)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H136" s="12">
-        <f>MIN(C136:F136)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="I136" s="6">
-        <f>G136-H136</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4677,15 +4680,15 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="11">
-        <f>MAX(C137,D137,E137,F137)</f>
+        <f t="shared" si="12"/>
         <v>920</v>
       </c>
       <c r="H137" s="12">
-        <f>MIN(C137:F137)</f>
+        <f t="shared" si="13"/>
         <v>920</v>
       </c>
       <c r="I137" s="6">
-        <f>G137-H137</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4705,15 +4708,15 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="11">
-        <f>MAX(C138,D138,E138,F138)</f>
+        <f t="shared" si="12"/>
         <v>1474</v>
       </c>
       <c r="H138" s="12">
-        <f>MIN(C138:F138)</f>
+        <f t="shared" si="13"/>
         <v>1380</v>
       </c>
       <c r="I138" s="6">
-        <f>G138-H138</f>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
     </row>
@@ -4729,15 +4732,15 @@
         <v>1260</v>
       </c>
       <c r="G139" s="11">
-        <f>MAX(C139,D139,E139,F139)</f>
+        <f t="shared" si="12"/>
         <v>1260</v>
       </c>
       <c r="H139" s="12">
-        <f>MIN(C139:F139)</f>
+        <f t="shared" si="13"/>
         <v>1260</v>
       </c>
       <c r="I139" s="3">
-        <f>G139-H139</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4753,15 +4756,15 @@
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="11">
-        <f>MAX(C140,D140,E140,F140)</f>
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
       <c r="H140" s="12">
-        <f>MIN(C140:F140)</f>
+        <f t="shared" si="13"/>
         <v>720</v>
       </c>
       <c r="I140" s="6">
-        <f>G140-H140</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4781,15 +4784,15 @@
         <v>1360</v>
       </c>
       <c r="G141" s="11">
-        <f>MAX(C141,D141,E141,F141)</f>
+        <f t="shared" si="12"/>
         <v>1360</v>
       </c>
       <c r="H141" s="12">
-        <f>MIN(C141:F141)</f>
+        <f t="shared" si="13"/>
         <v>1350</v>
       </c>
       <c r="I141" s="6">
-        <f>G141-H141</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
     </row>
@@ -4807,15 +4810,15 @@
         <v>2500</v>
       </c>
       <c r="G142" s="11">
-        <f>MAX(C142,D142,E142,F142)</f>
+        <f t="shared" si="12"/>
         <v>2500</v>
       </c>
       <c r="H142" s="12">
-        <f>MIN(C142:F142)</f>
+        <f t="shared" si="13"/>
         <v>2350</v>
       </c>
       <c r="I142" s="6">
-        <f>G142-H142</f>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
     </row>
@@ -4831,15 +4834,15 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="11">
-        <f>MAX(C143,D143,E143,F143)</f>
+        <f t="shared" si="12"/>
         <v>6212</v>
       </c>
       <c r="H143" s="12">
-        <f>MIN(C143:F143)</f>
+        <f t="shared" si="13"/>
         <v>6212</v>
       </c>
       <c r="I143" s="6">
-        <f>G143-H143</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4855,15 +4858,15 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="11">
-        <f>MAX(C144,D144,E144,F144)</f>
+        <f t="shared" si="12"/>
         <v>4600</v>
       </c>
       <c r="H144" s="12">
-        <f>MIN(C144:F144)</f>
+        <f t="shared" si="13"/>
         <v>4600</v>
       </c>
       <c r="I144" s="6">
-        <f>G144-H144</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4881,15 +4884,15 @@
         <v>2400</v>
       </c>
       <c r="G145" s="11">
-        <f>MAX(C145,D145,E145,F145)</f>
+        <f t="shared" si="12"/>
         <v>2400</v>
       </c>
       <c r="H145" s="12">
-        <f>MIN(C145:F145)</f>
+        <f t="shared" si="13"/>
         <v>2250</v>
       </c>
       <c r="I145" s="6">
-        <f>G145-H145</f>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
     </row>
@@ -4907,15 +4910,15 @@
         <v>380</v>
       </c>
       <c r="G146" s="11">
-        <f>MAX(C146,D146,E146,F146)</f>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="H146" s="12">
-        <f>MIN(C146:F146)</f>
+        <f t="shared" si="13"/>
         <v>380</v>
       </c>
       <c r="I146" s="6">
-        <f>G146-H146</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
     </row>
@@ -4931,15 +4934,15 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="11">
-        <f>MAX(C147,D147,E147,F147)</f>
+        <f t="shared" si="12"/>
         <v>1400</v>
       </c>
       <c r="H147" s="12">
-        <f>MIN(C147:F147)</f>
+        <f t="shared" si="13"/>
         <v>1400</v>
       </c>
       <c r="I147" s="6">
-        <f>G147-H147</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4955,15 +4958,15 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="11">
-        <f>MAX(C148,D148,E148,F148)</f>
+        <f t="shared" si="12"/>
         <v>805</v>
       </c>
       <c r="H148" s="12">
-        <f>MIN(C148:F148)</f>
+        <f t="shared" si="13"/>
         <v>805</v>
       </c>
       <c r="I148" s="6">
-        <f>G148-H148</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4979,15 +4982,15 @@
         <v>80</v>
       </c>
       <c r="G149" s="11">
-        <f>MAX(C149,D149,E149,F149)</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="H149" s="12">
-        <f>MIN(C149:F149)</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="I149" s="6">
-        <f>G149-H149</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5005,15 +5008,15 @@
         <v>220</v>
       </c>
       <c r="G150" s="11">
-        <f>MAX(C150,D150,E150,F150)</f>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
       <c r="H150" s="12">
-        <f>MIN(C150:F150)</f>
+        <f t="shared" si="13"/>
         <v>180</v>
       </c>
       <c r="I150" s="6">
-        <f>G150-H150</f>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
     </row>
@@ -5035,15 +5038,15 @@
         <v>700</v>
       </c>
       <c r="G151" s="11">
-        <f>MAX(C151,D151,E151,F151)</f>
+        <f t="shared" si="12"/>
         <v>741</v>
       </c>
       <c r="H151" s="12">
-        <f>MIN(C151:F151)</f>
+        <f t="shared" si="13"/>
         <v>700</v>
       </c>
       <c r="I151" s="6">
-        <f>G151-H151</f>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
     </row>
@@ -5059,15 +5062,15 @@
         <v>800</v>
       </c>
       <c r="G152" s="11">
-        <f>MAX(C152,D152,E152,F152)</f>
+        <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="H152" s="12">
-        <f>MIN(C152:F152)</f>
+        <f t="shared" si="13"/>
         <v>800</v>
       </c>
       <c r="I152" s="6">
-        <f>G152-H152</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5087,15 +5090,15 @@
         <v>1350</v>
       </c>
       <c r="G153" s="11">
-        <f>MAX(C153,D153,E153,F153)</f>
+        <f t="shared" si="12"/>
         <v>1400</v>
       </c>
       <c r="H153" s="12">
-        <f>MIN(C153:F153)</f>
+        <f t="shared" si="13"/>
         <v>1240</v>
       </c>
       <c r="I153" s="6">
-        <f>G153-H153</f>
+        <f t="shared" si="14"/>
         <v>160</v>
       </c>
     </row>
@@ -5115,15 +5118,15 @@
         <v>4500</v>
       </c>
       <c r="G154" s="11">
-        <f>MAX(C154,D154,E154,F154)</f>
+        <f t="shared" si="12"/>
         <v>4860</v>
       </c>
       <c r="H154" s="12">
-        <f>MIN(C154:F154)</f>
+        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
       <c r="I154" s="6">
-        <f>G154-H154</f>
+        <f t="shared" si="14"/>
         <v>360</v>
       </c>
     </row>
@@ -5139,15 +5142,15 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="11">
-        <f>MAX(C155,D155,E155,F155)</f>
+        <f t="shared" si="12"/>
         <v>1747</v>
       </c>
       <c r="H155" s="12">
-        <f>MIN(C155:F155)</f>
+        <f t="shared" si="13"/>
         <v>1747</v>
       </c>
       <c r="I155" s="6">
-        <f>G155-H155</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5165,15 +5168,15 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="11">
-        <f>MAX(C156,D156,E156,F156)</f>
+        <f t="shared" si="12"/>
         <v>2361</v>
       </c>
       <c r="H156" s="12">
-        <f>MIN(C156:F156)</f>
+        <f t="shared" si="13"/>
         <v>2361</v>
       </c>
       <c r="I156" s="6">
-        <f>G156-H156</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5195,15 +5198,15 @@
         <v>430</v>
       </c>
       <c r="G157" s="11">
-        <f>MAX(C157,D157,E157,F157)</f>
+        <f t="shared" si="12"/>
         <v>460</v>
       </c>
       <c r="H157" s="12">
-        <f>MIN(C157:F157)</f>
+        <f t="shared" si="13"/>
         <v>430</v>
       </c>
       <c r="I157" s="6">
-        <f>G157-H157</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
     </row>
@@ -5219,15 +5222,15 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="11">
-        <f>MAX(C158,D158,E158,F158)</f>
+        <f t="shared" si="12"/>
         <v>1380</v>
       </c>
       <c r="H158" s="12">
-        <f>MIN(C158:F158)</f>
+        <f t="shared" si="13"/>
         <v>1380</v>
       </c>
       <c r="I158" s="6">
-        <f>G158-H158</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5247,15 +5250,15 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="11">
-        <f>MAX(C159,D159,E159,F159)</f>
+        <f t="shared" si="12"/>
         <v>460</v>
       </c>
       <c r="H159" s="12">
-        <f>MIN(C159:F159)</f>
+        <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="I159" s="6">
-        <f>G159-H159</f>
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
     </row>
@@ -5274,15 +5277,15 @@
         <v>440</v>
       </c>
       <c r="G160" s="11">
-        <f>MAX(C160,D160,E160,F160)</f>
+        <f t="shared" si="12"/>
         <v>440</v>
       </c>
       <c r="H160" s="12">
-        <f>MIN(C160:F160)</f>
+        <f t="shared" si="13"/>
         <v>440</v>
       </c>
       <c r="I160" s="3">
-        <f>G160-H160</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5298,15 +5301,15 @@
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="11">
-        <f>MAX(C161,D161,E161,F161)</f>
+        <f t="shared" si="12"/>
         <v>750</v>
       </c>
       <c r="H161" s="12">
-        <f>MIN(C161:F161)</f>
+        <f t="shared" si="13"/>
         <v>750</v>
       </c>
       <c r="I161" s="6">
-        <f>G161-H161</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,15 +5327,15 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="11">
-        <f>MAX(C162,D162,E162,F162)</f>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="H162" s="12">
-        <f>MIN(C162:F162)</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="I162" s="6">
-        <f>G162-H162</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5352,15 +5355,15 @@
         <v>4200</v>
       </c>
       <c r="G163" s="11">
-        <f>MAX(C163,D163,E163,F163)</f>
+        <f t="shared" ref="G163:G194" si="15">MAX(C163,D163,E163,F163)</f>
         <v>4200</v>
       </c>
       <c r="H163" s="12">
-        <f>MIN(C163:F163)</f>
+        <f t="shared" ref="H163:H170" si="16">MIN(C163:F163)</f>
         <v>4000</v>
       </c>
       <c r="I163" s="6">
-        <f>G163-H163</f>
+        <f t="shared" ref="I163:I194" si="17">G163-H163</f>
         <v>200</v>
       </c>
     </row>
@@ -5378,15 +5381,15 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="11">
-        <f>MAX(C164,D164,E164,F164)</f>
+        <f t="shared" si="15"/>
         <v>1480</v>
       </c>
       <c r="H164" s="12">
-        <f>MIN(C164:F164)</f>
+        <f t="shared" si="16"/>
         <v>1480</v>
       </c>
       <c r="I164" s="6">
-        <f>G164-H164</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5402,15 +5405,15 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="11">
-        <f>MAX(C165,D165,E165,F165)</f>
+        <f t="shared" si="15"/>
         <v>1442</v>
       </c>
       <c r="H165" s="12">
-        <f>MIN(C165:F165)</f>
+        <f t="shared" si="16"/>
         <v>1442</v>
       </c>
       <c r="I165" s="6">
-        <f>G165-H165</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5429,15 +5432,15 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="11">
-        <f>MAX(C166,D166,E166,F166)</f>
+        <f t="shared" si="15"/>
         <v>256</v>
       </c>
       <c r="H166" s="12">
-        <f>MIN(C166:F166)</f>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
       <c r="I166" s="3">
-        <f>G166-H166</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5456,15 +5459,15 @@
         <v>200</v>
       </c>
       <c r="G167" s="11">
-        <f>MAX(C167,D167,E167,F167)</f>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="H167" s="12">
-        <f>MIN(C167:F167)</f>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="I167" s="3">
-        <f>G167-H167</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5480,15 +5483,15 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="11">
-        <f>MAX(C168,D168,E168,F168)</f>
+        <f t="shared" si="15"/>
         <v>1850</v>
       </c>
       <c r="H168" s="12">
-        <f>MIN(C168:F168)</f>
+        <f t="shared" si="16"/>
         <v>1850</v>
       </c>
       <c r="I168" s="3">
-        <f>G168-H168</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5506,15 +5509,15 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="11">
-        <f>MAX(C169,D169,E169,F169)</f>
+        <f t="shared" si="15"/>
         <v>1950</v>
       </c>
       <c r="H169" s="12">
-        <f>MIN(C169:F169)</f>
+        <f t="shared" si="16"/>
         <v>1950</v>
       </c>
       <c r="I169" s="6">
-        <f>G169-H169</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5532,15 +5535,15 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="11">
-        <f>MAX(C170,D170,E170,F170)</f>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="H170" s="12">
-        <f>MIN(C170:F170)</f>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="I170" s="6">
-        <f>G170-H170</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5586,22 +5589,26 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="B173" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="C173" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="C173" s="2">
+        <v>540</v>
+      </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="11">
         <f>MAX(C173,D173,E173,F173)</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H173" s="12">
         <f>MIN(C173:F173)</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="I173" s="3">
         <f>G173-H173</f>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>produit</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>dexametazone 100ml</t>
+  </si>
+  <si>
+    <t>PROMILK 1 KG</t>
+  </si>
+  <si>
+    <t>acetosyva</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +606,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -729,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -765,11 +778,27 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -880,16 +909,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -901,8 +920,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:I252" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A2:I252"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:I253" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:I253"/>
   <sortState ref="A3:I252">
     <sortCondition ref="A2:A252"/>
   </sortState>
@@ -913,8 +932,8 @@
     <tableColumn id="4" name="RAM-VET"/>
     <tableColumn id="5" name="KHALFA"/>
     <tableColumn id="6" name="BIO-TECH"/>
-    <tableColumn id="7" name="min" dataDxfId="1"/>
-    <tableColumn id="8" name="max" dataDxfId="0"/>
+    <tableColumn id="7" name="min" dataDxfId="2"/>
+    <tableColumn id="8" name="max" dataDxfId="1"/>
     <tableColumn id="9" name="deff"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1208,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K252"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1705,9 @@
         <v>1900</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>1850</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
@@ -1694,11 +1715,11 @@
       </c>
       <c r="H19" s="12">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -3516,13 +3537,15 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>1500</v>
+      </c>
       <c r="F91" s="2">
         <v>1450</v>
       </c>
       <c r="G91" s="11">
         <f t="shared" si="6"/>
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="H91" s="12">
         <f t="shared" si="7"/>
@@ -3530,7 +3553,7 @@
       </c>
       <c r="I91" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -3724,15 +3747,15 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="11">
-        <f t="shared" ref="G99:G130" si="9">MAX(C99,D99,E99,F99)</f>
+        <f t="shared" ref="G99:G131" si="9">MAX(C99,D99,E99,F99)</f>
         <v>420</v>
       </c>
       <c r="H99" s="12">
-        <f t="shared" ref="H99:H130" si="10">MIN(C99:F99)</f>
+        <f t="shared" ref="H99:H131" si="10">MIN(C99:F99)</f>
         <v>420</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" ref="I99:I130" si="11">G99-H99</f>
+        <f t="shared" ref="I99:I131" si="11">G99-H99</f>
         <v>0</v>
       </c>
     </row>
@@ -4402,16 +4425,16 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5">
-        <v>5050</v>
+        <v>5000</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="11">
         <f t="shared" si="9"/>
-        <v>5050</v>
+        <v>5000</v>
       </c>
       <c r="H126" s="12">
         <f t="shared" si="10"/>
-        <v>5050</v>
+        <v>5000</v>
       </c>
       <c r="I126" s="6">
         <f t="shared" si="11"/>
@@ -4420,73 +4443,62 @@
     </row>
     <row r="127" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="B127" s="5">
+        <v>300</v>
+      </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="5">
-        <v>625</v>
-      </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="11">
+      <c r="G127" s="19"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5">
+        <v>625</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="11">
         <f t="shared" si="9"/>
         <v>625</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H128" s="12">
         <f t="shared" si="10"/>
         <v>625</v>
       </c>
-      <c r="I127" s="6">
+      <c r="I128" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A128" s="4" t="s">
+    <row r="129" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5">
         <v>550</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G129" s="11">
         <f t="shared" si="9"/>
         <v>550</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H129" s="12">
         <f t="shared" si="10"/>
         <v>550</v>
       </c>
-      <c r="I128" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A129" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B129" s="5">
-        <v>1950</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5">
-        <v>1700</v>
-      </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="11">
-        <f t="shared" si="9"/>
-        <v>1700</v>
-      </c>
-      <c r="H129" s="12">
-        <f t="shared" si="10"/>
-        <v>1700</v>
-      </c>
       <c r="I129" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -4494,22 +4506,24 @@
     </row>
     <row r="130" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5">
-        <v>220</v>
-      </c>
-      <c r="D130" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1950</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5">
+        <v>1700</v>
+      </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="11">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>1700</v>
       </c>
       <c r="H130" s="12">
         <f t="shared" si="10"/>
-        <v>220</v>
+        <v>1700</v>
       </c>
       <c r="I130" s="6">
         <f t="shared" si="11"/>
@@ -4518,74 +4532,72 @@
     </row>
     <row r="131" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5">
-        <v>210</v>
-      </c>
+      <c r="C131" s="5">
+        <v>220</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="11">
-        <f t="shared" ref="G131:G162" si="12">MAX(C131,D131,E131,F131)</f>
-        <v>210</v>
+        <f t="shared" si="9"/>
+        <v>220</v>
       </c>
       <c r="H131" s="12">
-        <f t="shared" ref="H131:H162" si="13">MIN(C131:F131)</f>
-        <v>210</v>
+        <f t="shared" si="10"/>
+        <v>220</v>
       </c>
       <c r="I131" s="6">
-        <f t="shared" ref="I131:I162" si="14">G131-H131</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132" s="5">
-        <v>400</v>
-      </c>
-      <c r="C132" s="5">
-        <v>300</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5">
+        <v>210</v>
+      </c>
       <c r="F132" s="5"/>
       <c r="G132" s="11">
-        <f t="shared" si="12"/>
-        <v>300</v>
+        <f t="shared" ref="G132:G163" si="12">MAX(C132,D132,E132,F132)</f>
+        <v>210</v>
       </c>
       <c r="H132" s="12">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" ref="H132:H163" si="13">MIN(C132:F132)</f>
+        <v>210</v>
       </c>
       <c r="I132" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I132:I163" si="14">G132-H132</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B133" s="5">
-        <v>450</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5">
-        <v>338</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C133" s="5">
+        <v>300</v>
+      </c>
+      <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="11">
         <f t="shared" si="12"/>
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="H133" s="12">
         <f t="shared" si="13"/>
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="I133" s="6">
         <f t="shared" si="14"/>
@@ -4594,24 +4606,24 @@
     </row>
     <row r="134" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B134" s="5">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5">
-        <v>800</v>
-      </c>
+      <c r="D134" s="5">
+        <v>338</v>
+      </c>
+      <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="11">
         <f t="shared" si="12"/>
-        <v>800</v>
+        <v>338</v>
       </c>
       <c r="H134" s="12">
         <f t="shared" si="13"/>
-        <v>800</v>
+        <v>338</v>
       </c>
       <c r="I134" s="6">
         <f t="shared" si="14"/>
@@ -4620,24 +4632,24 @@
     </row>
     <row r="135" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B135" s="5">
-        <v>4900</v>
-      </c>
-      <c r="C135" s="5">
-        <v>4270</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5">
+        <v>800</v>
+      </c>
       <c r="F135" s="5"/>
       <c r="G135" s="11">
         <f t="shared" si="12"/>
-        <v>4270</v>
+        <v>800</v>
       </c>
       <c r="H135" s="12">
         <f t="shared" si="13"/>
-        <v>4270</v>
+        <v>800</v>
       </c>
       <c r="I135" s="6">
         <f t="shared" si="14"/>
@@ -4646,22 +4658,24 @@
     </row>
     <row r="136" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5">
-        <v>15</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B136" s="5">
+        <v>4900</v>
+      </c>
+      <c r="C136" s="5">
+        <v>4270</v>
+      </c>
+      <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="11">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>4270</v>
       </c>
       <c r="H136" s="12">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>4270</v>
       </c>
       <c r="I136" s="6">
         <f t="shared" si="14"/>
@@ -4670,22 +4684,22 @@
     </row>
     <row r="137" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B137" s="5"/>
-      <c r="C137" s="5">
-        <v>920</v>
-      </c>
-      <c r="D137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5">
+        <v>15</v>
+      </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="11">
         <f t="shared" si="12"/>
-        <v>920</v>
+        <v>15</v>
       </c>
       <c r="H137" s="12">
         <f t="shared" si="13"/>
-        <v>920</v>
+        <v>15</v>
       </c>
       <c r="I137" s="6">
         <f t="shared" si="14"/>
@@ -4694,176 +4708,176 @@
     </row>
     <row r="138" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" s="5">
-        <v>1650</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B138" s="5"/>
       <c r="C138" s="5">
-        <v>1380</v>
-      </c>
-      <c r="D138" s="5">
-        <v>1474</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="11">
         <f t="shared" si="12"/>
-        <v>1474</v>
+        <v>920</v>
       </c>
       <c r="H138" s="12">
         <f t="shared" si="13"/>
-        <v>1380</v>
+        <v>920</v>
       </c>
       <c r="I138" s="6">
         <f t="shared" si="14"/>
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2">
-        <v>1260</v>
-      </c>
+      <c r="A139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="5">
+        <v>1650</v>
+      </c>
+      <c r="C139" s="5">
+        <v>1380</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1474</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
       <c r="G139" s="11">
         <f t="shared" si="12"/>
-        <v>1260</v>
+        <v>1474</v>
       </c>
       <c r="H139" s="12">
         <f t="shared" si="13"/>
+        <v>1380</v>
+      </c>
+      <c r="I139" s="6">
+        <f t="shared" si="14"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2">
         <v>1260</v>
       </c>
-      <c r="I139" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5">
-        <v>720</v>
-      </c>
-      <c r="F140" s="5"/>
       <c r="G140" s="11">
         <f t="shared" si="12"/>
-        <v>720</v>
+        <v>1260</v>
       </c>
       <c r="H140" s="12">
         <f t="shared" si="13"/>
-        <v>720</v>
-      </c>
-      <c r="I140" s="6">
+        <v>1260</v>
+      </c>
+      <c r="I140" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B141" s="5">
-        <v>1550</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5">
-        <v>1350</v>
-      </c>
-      <c r="F141" s="5">
-        <v>1360</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="F141" s="5"/>
       <c r="G141" s="11">
         <f t="shared" si="12"/>
-        <v>1360</v>
+        <v>720</v>
       </c>
       <c r="H141" s="12">
         <f t="shared" si="13"/>
-        <v>1350</v>
+        <v>720</v>
       </c>
       <c r="I141" s="6">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B142" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1550</v>
+      </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5">
-        <v>2350</v>
+        <v>1350</v>
       </c>
       <c r="F142" s="5">
-        <v>2500</v>
+        <v>1360</v>
       </c>
       <c r="G142" s="11">
         <f t="shared" si="12"/>
-        <v>2500</v>
+        <v>1360</v>
       </c>
       <c r="H142" s="12">
         <f t="shared" si="13"/>
-        <v>2350</v>
+        <v>1350</v>
       </c>
       <c r="I142" s="6">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="5">
-        <v>6212</v>
-      </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5">
+        <v>2350</v>
+      </c>
+      <c r="F143" s="5">
+        <v>2500</v>
+      </c>
       <c r="G143" s="11">
         <f t="shared" si="12"/>
-        <v>6212</v>
+        <v>2500</v>
       </c>
       <c r="H143" s="12">
         <f t="shared" si="13"/>
-        <v>6212</v>
+        <v>2350</v>
       </c>
       <c r="I143" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5">
-        <v>4600</v>
+        <v>6212</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="11">
         <f t="shared" si="12"/>
-        <v>4600</v>
+        <v>6212</v>
       </c>
       <c r="H144" s="12">
         <f t="shared" si="13"/>
-        <v>4600</v>
+        <v>6212</v>
       </c>
       <c r="I144" s="6">
         <f t="shared" si="14"/>
@@ -4872,98 +4886,98 @@
     </row>
     <row r="145" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B145" s="5"/>
-      <c r="C145" s="5">
-        <v>2250</v>
-      </c>
-      <c r="D145" s="9"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5">
+        <v>4600</v>
+      </c>
       <c r="E145" s="5"/>
-      <c r="F145" s="5">
-        <v>2400</v>
-      </c>
+      <c r="F145" s="5"/>
       <c r="G145" s="11">
         <f t="shared" si="12"/>
-        <v>2400</v>
+        <v>4600</v>
       </c>
       <c r="H145" s="12">
         <f t="shared" si="13"/>
-        <v>2250</v>
+        <v>4600</v>
       </c>
       <c r="I145" s="6">
         <f t="shared" si="14"/>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5">
-        <v>400</v>
-      </c>
+      <c r="C146" s="5">
+        <v>2250</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="5"/>
       <c r="F146" s="5">
-        <v>380</v>
+        <v>2400</v>
       </c>
       <c r="G146" s="11">
         <f t="shared" si="12"/>
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="H146" s="12">
         <f t="shared" si="13"/>
-        <v>380</v>
+        <v>2250</v>
       </c>
       <c r="I146" s="6">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="5">
-        <v>1400</v>
-      </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5">
+        <v>400</v>
+      </c>
+      <c r="F147" s="5">
+        <v>380</v>
+      </c>
       <c r="G147" s="11">
         <f t="shared" si="12"/>
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="H147" s="12">
         <f t="shared" si="13"/>
-        <v>1400</v>
+        <v>380</v>
       </c>
       <c r="I147" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5">
-        <v>805</v>
+        <v>1400</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="11">
         <f t="shared" si="12"/>
-        <v>805</v>
+        <v>1400</v>
       </c>
       <c r="H148" s="12">
         <f t="shared" si="13"/>
-        <v>805</v>
+        <v>1400</v>
       </c>
       <c r="I148" s="6">
         <f t="shared" si="14"/>
@@ -4972,22 +4986,22 @@
     </row>
     <row r="149" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="5">
+        <v>805</v>
+      </c>
       <c r="E149" s="5"/>
-      <c r="F149" s="5">
-        <v>80</v>
-      </c>
+      <c r="F149" s="5"/>
       <c r="G149" s="11">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>805</v>
       </c>
       <c r="H149" s="12">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>805</v>
       </c>
       <c r="I149" s="6">
         <f t="shared" si="14"/>
@@ -4996,184 +5010,182 @@
     </row>
     <row r="150" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="5">
-        <v>180</v>
-      </c>
+      <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="G150" s="11">
         <f t="shared" si="12"/>
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="H150" s="12">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="I150" s="6">
         <f t="shared" si="14"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B151" s="5"/>
-      <c r="C151" s="5">
-        <v>730</v>
-      </c>
+      <c r="C151" s="5"/>
       <c r="D151" s="5">
-        <v>741</v>
-      </c>
-      <c r="E151" s="5">
-        <v>700</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E151" s="5"/>
       <c r="F151" s="5">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="G151" s="11">
         <f t="shared" si="12"/>
-        <v>741</v>
+        <v>220</v>
       </c>
       <c r="H151" s="12">
         <f t="shared" si="13"/>
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="I151" s="6">
         <f t="shared" si="14"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="C152" s="5">
+        <v>730</v>
+      </c>
+      <c r="D152" s="5">
+        <v>741</v>
+      </c>
+      <c r="E152" s="5">
+        <v>700</v>
+      </c>
       <c r="F152" s="5">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G152" s="11">
         <f t="shared" si="12"/>
-        <v>800</v>
+        <v>741</v>
       </c>
       <c r="H152" s="12">
         <f t="shared" si="13"/>
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I152" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B153" s="5"/>
-      <c r="C153" s="5">
-        <v>1240</v>
-      </c>
+      <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="5">
-        <v>1400</v>
-      </c>
+      <c r="E153" s="5"/>
       <c r="F153" s="5">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="G153" s="11">
         <f t="shared" si="12"/>
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="H153" s="12">
         <f t="shared" si="13"/>
-        <v>1240</v>
+        <v>800</v>
       </c>
       <c r="I153" s="6">
         <f t="shared" si="14"/>
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B154" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5">
-        <v>4860</v>
-      </c>
-      <c r="E154" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5">
+        <v>1240</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5">
+        <v>1400</v>
+      </c>
       <c r="F154" s="5">
-        <v>4500</v>
+        <v>1350</v>
       </c>
       <c r="G154" s="11">
         <f t="shared" si="12"/>
-        <v>4860</v>
+        <v>1400</v>
       </c>
       <c r="H154" s="12">
         <f t="shared" si="13"/>
-        <v>4500</v>
+        <v>1240</v>
       </c>
       <c r="I154" s="6">
         <f t="shared" si="14"/>
-        <v>360</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B155" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="B155" s="5">
+        <v>5000</v>
+      </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5">
-        <v>1747</v>
+        <v>4860</v>
       </c>
       <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
+      <c r="F155" s="5">
+        <v>4500</v>
+      </c>
       <c r="G155" s="11">
         <f t="shared" si="12"/>
-        <v>1747</v>
+        <v>4860</v>
       </c>
       <c r="H155" s="12">
         <f t="shared" si="13"/>
-        <v>1747</v>
+        <v>4500</v>
       </c>
       <c r="I155" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B156" s="5">
-        <v>2800</v>
-      </c>
-      <c r="C156" s="5">
-        <v>2361</v>
-      </c>
-      <c r="D156" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5">
+        <v>1747</v>
+      </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="11">
         <f t="shared" si="12"/>
-        <v>2361</v>
+        <v>1747</v>
       </c>
       <c r="H156" s="12">
         <f t="shared" si="13"/>
-        <v>2361</v>
+        <v>1747</v>
       </c>
       <c r="I156" s="6">
         <f t="shared" si="14"/>
@@ -5182,157 +5194,157 @@
     </row>
     <row r="157" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B157" s="5">
-        <v>600</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5">
-        <v>460</v>
-      </c>
-      <c r="E157" s="5">
-        <v>450</v>
-      </c>
-      <c r="F157" s="5">
-        <v>430</v>
-      </c>
+        <v>2800</v>
+      </c>
+      <c r="C157" s="5">
+        <v>2361</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
       <c r="G157" s="11">
         <f t="shared" si="12"/>
-        <v>460</v>
+        <v>2361</v>
       </c>
       <c r="H157" s="12">
         <f t="shared" si="13"/>
-        <v>430</v>
+        <v>2361</v>
       </c>
       <c r="I157" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5">
-        <v>1380</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B158" s="5">
+        <v>600</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5">
+        <v>460</v>
+      </c>
+      <c r="E158" s="5">
+        <v>450</v>
+      </c>
+      <c r="F158" s="5">
+        <v>430</v>
+      </c>
       <c r="G158" s="11">
         <f t="shared" si="12"/>
-        <v>1380</v>
+        <v>460</v>
       </c>
       <c r="H158" s="12">
         <f t="shared" si="13"/>
-        <v>1380</v>
+        <v>430</v>
       </c>
       <c r="I158" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B159" s="5">
-        <v>600</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B159" s="5"/>
       <c r="C159" s="5">
-        <v>290</v>
-      </c>
-      <c r="D159" s="5">
-        <v>460</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="11">
         <f t="shared" si="12"/>
-        <v>460</v>
+        <v>1380</v>
       </c>
       <c r="H159" s="12">
         <f t="shared" si="13"/>
-        <v>290</v>
+        <v>1380</v>
       </c>
       <c r="I159" s="6">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="5">
+        <v>600</v>
+      </c>
+      <c r="C160" s="5">
+        <v>290</v>
+      </c>
+      <c r="D160" s="5">
+        <v>460</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="11">
+        <f t="shared" si="12"/>
+        <v>460</v>
+      </c>
+      <c r="H160" s="12">
+        <f t="shared" si="13"/>
+        <v>290</v>
+      </c>
+      <c r="I160" s="6">
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
+    <row r="161" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B161" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
         <v>572</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2">
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2">
         <v>440</v>
       </c>
-      <c r="G160" s="11">
+      <c r="G161" s="11">
         <f t="shared" si="12"/>
         <v>440</v>
       </c>
-      <c r="H160" s="12">
+      <c r="H161" s="12">
         <f t="shared" si="13"/>
         <v>440</v>
       </c>
-      <c r="I160" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A161" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5">
-        <v>750</v>
-      </c>
-      <c r="F161" s="5"/>
-      <c r="G161" s="11">
-        <f t="shared" si="12"/>
-        <v>750</v>
-      </c>
-      <c r="H161" s="12">
-        <f t="shared" si="13"/>
-        <v>750</v>
-      </c>
-      <c r="I161" s="6">
+      <c r="I161" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B162" s="5">
-        <v>500</v>
-      </c>
-      <c r="C162" s="5">
-        <v>400</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="E162" s="5">
+        <v>750</v>
+      </c>
       <c r="F162" s="5"/>
       <c r="G162" s="11">
         <f t="shared" si="12"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="H162" s="12">
         <f t="shared" si="13"/>
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="I162" s="6">
         <f t="shared" si="14"/>
@@ -5341,76 +5353,78 @@
     </row>
     <row r="163" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B163" s="5">
-        <v>4500</v>
-      </c>
-      <c r="C163" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="C163" s="5">
+        <v>400</v>
+      </c>
       <c r="D163" s="5"/>
-      <c r="E163" s="5">
-        <v>4000</v>
-      </c>
-      <c r="F163" s="5">
-        <v>4200</v>
-      </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
       <c r="G163" s="11">
-        <f t="shared" ref="G163:G194" si="15">MAX(C163,D163,E163,F163)</f>
-        <v>4200</v>
+        <f t="shared" si="12"/>
+        <v>400</v>
       </c>
       <c r="H163" s="12">
-        <f t="shared" ref="H163:H170" si="16">MIN(C163:F163)</f>
-        <v>4000</v>
+        <f t="shared" si="13"/>
+        <v>400</v>
       </c>
       <c r="I163" s="6">
-        <f t="shared" ref="I163:I194" si="17">G163-H163</f>
-        <v>200</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B164" s="5">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="5">
-        <v>1480</v>
-      </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F164" s="5">
+        <v>4200</v>
+      </c>
       <c r="G164" s="11">
-        <f t="shared" si="15"/>
-        <v>1480</v>
+        <f t="shared" ref="G164:G171" si="15">MAX(C164,D164,E164,F164)</f>
+        <v>4200</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" si="16"/>
-        <v>1480</v>
+        <f t="shared" ref="H164:H171" si="16">MIN(C164:F164)</f>
+        <v>4000</v>
       </c>
       <c r="I164" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="I164:I171" si="17">G164-H164</f>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B165" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B165" s="5">
+        <v>1800</v>
+      </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5">
-        <v>1442</v>
+        <v>1480</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="11">
         <f t="shared" si="15"/>
-        <v>1442</v>
+        <v>1480</v>
       </c>
       <c r="H165" s="12">
         <f t="shared" si="16"/>
-        <v>1442</v>
+        <v>1480</v>
       </c>
       <c r="I165" s="6">
         <f t="shared" si="17"/>
@@ -5418,129 +5432,127 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5">
+        <v>1442</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="11">
+        <f t="shared" si="15"/>
+        <v>1442</v>
+      </c>
+      <c r="H166" s="12">
+        <f t="shared" si="16"/>
+        <v>1442</v>
+      </c>
+      <c r="I166" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B167" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
         <v>332.8</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2">
         <v>256</v>
       </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="11">
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="11">
         <f t="shared" si="15"/>
         <v>256</v>
       </c>
-      <c r="H166" s="12">
+      <c r="H167" s="12">
         <f t="shared" si="16"/>
         <v>256</v>
       </c>
-      <c r="I166" s="3">
+      <c r="I167" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
+    <row r="168" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B168" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
         <v>260</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2">
         <v>200</v>
       </c>
-      <c r="G167" s="11">
+      <c r="G168" s="11">
         <f t="shared" si="15"/>
         <v>200</v>
       </c>
-      <c r="H167" s="12">
+      <c r="H168" s="12">
         <f t="shared" si="16"/>
         <v>200</v>
       </c>
-      <c r="I167" s="3">
+      <c r="I168" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
+    <row r="169" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2">
         <v>1850</v>
       </c>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="11">
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="11">
         <f t="shared" si="15"/>
         <v>1850</v>
       </c>
-      <c r="H168" s="12">
+      <c r="H169" s="12">
         <f t="shared" si="16"/>
         <v>1850</v>
       </c>
-      <c r="I168" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B169" s="5">
-        <v>2400</v>
-      </c>
-      <c r="C169" s="5">
-        <v>1950</v>
-      </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="11">
-        <f t="shared" si="15"/>
-        <v>1950</v>
-      </c>
-      <c r="H169" s="12">
-        <f t="shared" si="16"/>
-        <v>1950</v>
-      </c>
-      <c r="I169" s="6">
+      <c r="I169" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="B170" s="5">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="C170" s="5">
-        <v>250</v>
+        <v>1950</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="11">
         <f t="shared" si="15"/>
-        <v>250</v>
+        <v>1950</v>
       </c>
       <c r="H170" s="12">
         <f t="shared" si="16"/>
-        <v>250</v>
+        <v>1950</v>
       </c>
       <c r="I170" s="6">
         <f t="shared" si="17"/>
@@ -5549,89 +5561,92 @@
     </row>
     <row r="171" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="B171" s="5">
+        <v>500</v>
+      </c>
+      <c r="C171" s="5">
+        <v>250</v>
+      </c>
       <c r="D171" s="5"/>
-      <c r="E171" s="5">
-        <v>1450</v>
-      </c>
+      <c r="E171" s="5"/>
       <c r="F171" s="5"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="6"/>
+      <c r="G171" s="11">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="H171" s="12">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="I171" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5">
+        <v>1450</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B173" s="5">
         <v>6100</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C173" s="5">
         <v>5100</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="11">
-        <f>MAX(C172,D172,E172,F172)</f>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="11">
+        <f>MAX(C173,D173,E173,F173)</f>
         <v>5100</v>
       </c>
-      <c r="H172" s="12">
-        <f>MIN(C172:F172)</f>
+      <c r="H173" s="12">
+        <f>MIN(C173:F173)</f>
         <v>5100</v>
       </c>
-      <c r="I172" s="6">
-        <f>G172-H172</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A173" s="2" t="s">
+      <c r="I173" s="6">
+        <f>G173-H173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B174" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
         <v>702</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C174" s="2">
         <v>540</v>
       </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="11">
-        <f>MAX(C173,D173,E173,F173)</f>
-        <v>540</v>
-      </c>
-      <c r="H173" s="12">
-        <f>MIN(C173:F173)</f>
-        <v>540</v>
-      </c>
-      <c r="I173" s="3">
-        <f>G173-H173</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2">
-        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="11">
         <f>MAX(C174,D174,E174,F174)</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H174" s="12">
         <f>MIN(C174:F174)</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="I174" s="3">
         <f>G174-H174</f>
@@ -5639,22 +5654,26 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="B175" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="E175" s="2">
+        <v>680</v>
+      </c>
       <c r="F175" s="2"/>
       <c r="G175" s="11">
         <f>MAX(C175,D175,E175,F175)</f>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="H175" s="12">
         <f>MIN(C175:F175)</f>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="I175" s="3">
         <f>G175-H175</f>
@@ -5684,67 +5703,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="G177" s="11"/>
-      <c r="H177" s="12"/>
-    </row>
-    <row r="178" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2">
+        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="11">
+        <f>MAX(C177,D177,E177,F177)</f>
+        <v>0</v>
+      </c>
+      <c r="H177" s="12">
+        <f>MIN(C177:F177)</f>
+        <v>0</v>
+      </c>
+      <c r="I177" s="3">
+        <f>G177-H177</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G178" s="11"/>
       <c r="H178" s="12"/>
     </row>
-    <row r="179" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G179" s="11"/>
       <c r="H179" s="12"/>
     </row>
-    <row r="180" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G180" s="11"/>
       <c r="H180" s="12"/>
     </row>
-    <row r="181" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G181" s="11"/>
       <c r="H181" s="12"/>
     </row>
-    <row r="182" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G182" s="11"/>
       <c r="H182" s="12"/>
     </row>
-    <row r="183" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G183" s="11"/>
       <c r="H183" s="12"/>
     </row>
-    <row r="184" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G184" s="11"/>
       <c r="H184" s="12"/>
     </row>
-    <row r="185" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G185" s="11"/>
       <c r="H185" s="12"/>
     </row>
-    <row r="186" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G186" s="11"/>
       <c r="H186" s="12"/>
     </row>
-    <row r="187" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G187" s="11"/>
       <c r="H187" s="12"/>
     </row>
-    <row r="188" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G188" s="11"/>
       <c r="H188" s="12"/>
     </row>
-    <row r="189" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G189" s="11"/>
       <c r="H189" s="12"/>
     </row>
-    <row r="190" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G190" s="11"/>
       <c r="H190" s="12"/>
     </row>
-    <row r="191" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G191" s="11"/>
       <c r="H191" s="12"/>
     </row>
-    <row r="192" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G192" s="11"/>
       <c r="H192" s="12"/>
     </row>
@@ -5987,6 +6025,10 @@
     <row r="252" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="G252" s="11"/>
       <c r="H252" s="12"/>
+    </row>
+    <row r="253" spans="7:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="G253" s="11"/>
+      <c r="H253" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A3:I157">
@@ -5995,8 +6037,8 @@
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I252">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="I3:I253">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>produit</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>acetosyva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -769,6 +772,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,27 +787,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -909,6 +902,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -920,7 +923,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:I253" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:I253" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:I253"/>
   <sortState ref="A3:I252">
     <sortCondition ref="A2:A252"/>
@@ -932,8 +935,8 @@
     <tableColumn id="4" name="RAM-VET"/>
     <tableColumn id="5" name="KHALFA"/>
     <tableColumn id="6" name="BIO-TECH"/>
-    <tableColumn id="7" name="min" dataDxfId="2"/>
-    <tableColumn id="8" name="max" dataDxfId="1"/>
+    <tableColumn id="7" name="min" dataDxfId="1"/>
+    <tableColumn id="8" name="max" dataDxfId="0"/>
     <tableColumn id="9" name="deff"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1229,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,12 +1252,12 @@
     <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -2008,7 +2011,9 @@
       <c r="A31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5">
+        <v>650</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2032,8 +2037,8 @@
       <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="5">
-        <v>850</v>
+      <c r="B32" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -4452,8 +4457,8 @@
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="20"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="17"/>
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -6038,7 +6043,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I253">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Feuil2!$1:$1</definedName>
     <definedName name="MM">Feuil1!$B$107</definedName>
     <definedName name="MMM" localSheetId="0">Feuil1!$C$105</definedName>
   </definedNames>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="184">
   <si>
     <t>produit</t>
   </si>
@@ -250,9 +251,6 @@
     <t>BIOCYLINE 150 (100ML)</t>
   </si>
   <si>
-    <t>BAYMEC 50</t>
-  </si>
-  <si>
     <t>IVERMECTINE EAF</t>
   </si>
   <si>
@@ -572,6 +570,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BAYMEC 50 ml</t>
   </si>
 </sst>
 </file>
@@ -581,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,8 +619,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,8 +678,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -741,11 +775,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -778,6 +864,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,7 +894,136 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -923,7 +1155,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:I253" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A2:I253" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A2:I253"/>
   <sortState ref="A3:I252">
     <sortCondition ref="A2:A252"/>
@@ -935,11 +1167,26 @@
     <tableColumn id="4" name="RAM-VET"/>
     <tableColumn id="5" name="KHALFA"/>
     <tableColumn id="6" name="BIO-TECH"/>
-    <tableColumn id="7" name="min" dataDxfId="1"/>
-    <tableColumn id="8" name="max" dataDxfId="0"/>
+    <tableColumn id="7" name="min" dataDxfId="5"/>
+    <tableColumn id="8" name="max" dataDxfId="4"/>
     <tableColumn id="9" name="deff"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C124" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A1:C124"/>
+  <sortState ref="A2:C124">
+    <sortCondition ref="A1:A124"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="produit" dataDxfId="2"/>
+    <tableColumn id="2" name="prix de vente" dataDxfId="1"/>
+    <tableColumn id="3" name="prix d'achat" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1232,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,18 +1493,18 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -1282,20 +1529,20 @@
         <v>5</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1439,7 +1686,7 @@
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="5">
         <v>550</v>
@@ -1493,7 +1740,7 @@
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="5">
         <v>350</v>
@@ -1649,7 +1896,7 @@
     </row>
     <row r="17" spans="1:9" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="5">
         <v>550</v>
@@ -1675,7 +1922,7 @@
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1753,7 +2000,7 @@
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1777,7 +2024,7 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="5">
         <v>1500</v>
@@ -1829,7 +2076,7 @@
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5">
         <v>1100</v>
@@ -1909,7 +2156,7 @@
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1933,7 +2180,7 @@
     </row>
     <row r="28" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="5">
         <v>800</v>
@@ -1959,7 +2206,7 @@
     </row>
     <row r="29" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5">
@@ -1983,7 +2230,7 @@
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="5">
         <v>850</v>
@@ -2009,7 +2256,7 @@
     </row>
     <row r="31" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="5">
         <v>650</v>
@@ -2035,10 +2282,10 @@
     </row>
     <row r="32" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2089,9 +2336,11 @@
     </row>
     <row r="34" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1600</v>
+      </c>
       <c r="C34" s="5">
         <v>1320</v>
       </c>
@@ -2167,7 +2416,7 @@
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2191,7 +2440,7 @@
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5">
         <v>1800</v>
@@ -2241,7 +2490,7 @@
     </row>
     <row r="40" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2293,7 +2542,7 @@
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="5">
         <v>400</v>
@@ -2321,7 +2570,7 @@
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="5">
         <v>1200</v>
@@ -2347,7 +2596,7 @@
     </row>
     <row r="44" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="5">
         <v>1400</v>
@@ -2373,7 +2622,7 @@
     </row>
     <row r="45" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" s="2">
         <v>7500</v>
@@ -2425,7 +2674,7 @@
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="5">
         <v>1500</v>
@@ -2473,7 +2722,7 @@
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2497,7 +2746,7 @@
     </row>
     <row r="50" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" s="5">
         <v>4000</v>
@@ -2547,7 +2796,7 @@
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5">
@@ -2597,7 +2846,7 @@
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2647,7 +2896,7 @@
     </row>
     <row r="56" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="5">
         <v>800</v>
@@ -2697,7 +2946,7 @@
     </row>
     <row r="58" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2721,7 +2970,7 @@
     </row>
     <row r="59" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2745,7 +2994,7 @@
     </row>
     <row r="60" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="5">
         <v>9700</v>
@@ -2797,7 +3046,7 @@
     </row>
     <row r="62" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2845,7 +3094,7 @@
     </row>
     <row r="64" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B64" s="5">
         <v>250</v>
@@ -2871,7 +3120,7 @@
     </row>
     <row r="65" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="5">
         <v>1550</v>
@@ -2897,7 +3146,7 @@
     </row>
     <row r="66" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2921,7 +3170,7 @@
     </row>
     <row r="67" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" s="5">
         <v>450</v>
@@ -2971,23 +3220,25 @@
     </row>
     <row r="69" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B69" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>980</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H69" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="8"/>
@@ -2996,7 +3247,7 @@
     </row>
     <row r="70" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3020,7 +3271,7 @@
     </row>
     <row r="71" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3044,7 +3295,7 @@
     </row>
     <row r="72" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3068,7 +3319,7 @@
     </row>
     <row r="73" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B73" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
@@ -3095,7 +3346,7 @@
     </row>
     <row r="74" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3143,7 +3394,7 @@
     </row>
     <row r="76" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" s="5">
         <v>550</v>
@@ -3195,7 +3446,7 @@
     </row>
     <row r="78" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5">
@@ -3219,7 +3470,7 @@
     </row>
     <row r="79" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="5">
         <v>4000</v>
@@ -3271,7 +3522,7 @@
     </row>
     <row r="81" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5">
@@ -3279,14 +3530,14 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="F81" s="5">
         <v>1080</v>
       </c>
       <c r="G81" s="11">
         <f t="shared" si="6"/>
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="H81" s="12">
         <f t="shared" si="7"/>
@@ -3294,12 +3545,12 @@
       </c>
       <c r="I81" s="6">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="5">
         <v>1450</v>
@@ -3325,7 +3576,7 @@
     </row>
     <row r="83" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3349,7 +3600,7 @@
     </row>
     <row r="84" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3373,7 +3624,7 @@
     </row>
     <row r="85" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="5">
         <v>650</v>
@@ -3427,7 +3678,7 @@
     </row>
     <row r="87" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="5">
         <v>550</v>
@@ -3453,7 +3704,7 @@
     </row>
     <row r="88" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="5">
         <v>550</v>
@@ -3483,7 +3734,7 @@
     </row>
     <row r="89" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3507,7 +3758,7 @@
     </row>
     <row r="90" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" s="5">
         <v>1400</v>
@@ -3535,7 +3786,7 @@
     </row>
     <row r="91" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B91" s="2">
         <v>1750</v>
@@ -3591,7 +3842,7 @@
     </row>
     <row r="93" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93" s="5">
         <v>2500</v>
@@ -3615,7 +3866,7 @@
     </row>
     <row r="94" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B94" s="5">
         <v>800</v>
@@ -3739,7 +3990,7 @@
     </row>
     <row r="99" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
@@ -3794,7 +4045,7 @@
     </row>
     <row r="101" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3844,7 +4095,7 @@
     </row>
     <row r="103" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3868,7 +4119,7 @@
     </row>
     <row r="104" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3892,7 +4143,7 @@
     </row>
     <row r="105" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3942,7 +4193,7 @@
     </row>
     <row r="107" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B107" s="2">
         <v>5500</v>
@@ -3968,7 +4219,7 @@
     </row>
     <row r="108" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5">
@@ -3992,7 +4243,7 @@
     </row>
     <row r="109" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4016,7 +4267,7 @@
     </row>
     <row r="110" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" s="2">
         <v>10000</v>
@@ -4042,7 +4293,7 @@
     </row>
     <row r="111" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4094,7 +4345,7 @@
     </row>
     <row r="113" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" s="5">
         <v>3500</v>
@@ -4120,7 +4371,7 @@
     </row>
     <row r="114" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4172,7 +4423,7 @@
     </row>
     <row r="116" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" s="5">
         <v>2200</v>
@@ -4198,7 +4449,7 @@
     </row>
     <row r="117" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5">
@@ -4250,7 +4501,7 @@
     </row>
     <row r="119" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4274,7 +4525,7 @@
     </row>
     <row r="120" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4322,7 +4573,7 @@
     </row>
     <row r="122" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B122" s="5">
         <v>700</v>
@@ -4400,7 +4651,7 @@
     </row>
     <row r="125" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4424,7 +4675,7 @@
     </row>
     <row r="126" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4448,7 +4699,7 @@
     </row>
     <row r="127" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B127" s="5">
         <v>300</v>
@@ -4487,7 +4738,7 @@
     </row>
     <row r="129" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4561,7 +4812,7 @@
     </row>
     <row r="132" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4585,7 +4836,7 @@
     </row>
     <row r="133" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="5">
         <v>400</v>
@@ -4637,7 +4888,7 @@
     </row>
     <row r="135" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B135" s="5">
         <v>1200</v>
@@ -4663,7 +4914,7 @@
     </row>
     <row r="136" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="5">
         <v>4900</v>
@@ -4765,7 +5016,7 @@
     </row>
     <row r="140" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4789,7 +5040,7 @@
     </row>
     <row r="141" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4813,7 +5064,7 @@
     </row>
     <row r="142" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B142" s="5">
         <v>1550</v>
@@ -4841,7 +5092,7 @@
     </row>
     <row r="143" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4941,7 +5192,7 @@
     </row>
     <row r="147" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5015,7 +5266,7 @@
     </row>
     <row r="150" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -5039,7 +5290,7 @@
     </row>
     <row r="151" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5095,7 +5346,7 @@
     </row>
     <row r="153" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5147,7 +5398,7 @@
     </row>
     <row r="155" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="5">
         <v>5000</v>
@@ -5199,7 +5450,7 @@
     </row>
     <row r="157" spans="1:9" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B157" s="5">
         <v>2800</v>
@@ -5307,7 +5558,7 @@
     </row>
     <row r="161" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B161" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
@@ -5334,7 +5585,7 @@
     </row>
     <row r="162" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5358,7 +5609,7 @@
     </row>
     <row r="163" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163" s="5">
         <v>500</v>
@@ -5384,7 +5635,7 @@
     </row>
     <row r="164" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B164" s="5">
         <v>4500</v>
@@ -5402,7 +5653,7 @@
         <v>4200</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" ref="H164:H171" si="16">MIN(C164:F164)</f>
+        <f t="shared" ref="H164:H172" si="16">MIN(C164:F164)</f>
         <v>4000</v>
       </c>
       <c r="I164" s="6">
@@ -5462,7 +5713,7 @@
     </row>
     <row r="167" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B167" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
@@ -5489,7 +5740,7 @@
     </row>
     <row r="168" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
@@ -5516,7 +5767,7 @@
     </row>
     <row r="169" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5566,7 +5817,7 @@
     </row>
     <row r="171" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B171" s="5">
         <v>500</v>
@@ -5592,7 +5843,7 @@
     </row>
     <row r="172" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5602,12 +5853,15 @@
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="11"/>
-      <c r="H172" s="12"/>
+      <c r="H172" s="12">
+        <f t="shared" si="16"/>
+        <v>1450</v>
+      </c>
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B173" s="5">
         <v>6100</v>
@@ -5633,7 +5887,7 @@
     </row>
     <row r="174" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B174" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
@@ -5660,7 +5914,7 @@
     </row>
     <row r="175" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B175" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
@@ -6043,7 +6297,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I253">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6057,13 +6311,1404 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="22" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="19">
+        <v>850</v>
+      </c>
+      <c r="C2" s="19">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="19">
+        <v>550</v>
+      </c>
+      <c r="C3" s="19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="19">
+        <v>250</v>
+      </c>
+      <c r="C4" s="19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="19">
+        <v>350</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19">
+        <v>700</v>
+      </c>
+      <c r="C6" s="19">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="19">
+        <v>7250</v>
+      </c>
+      <c r="C7" s="19">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="19">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="19">
+        <v>550</v>
+      </c>
+      <c r="C10" s="19">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2400</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="19">
+        <v>850</v>
+      </c>
+      <c r="C13" s="19">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1450</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="19">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="19">
+        <v>300</v>
+      </c>
+      <c r="C17" s="19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="19">
+        <v>800</v>
+      </c>
+      <c r="C20" s="19">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="19">
+        <v>850</v>
+      </c>
+      <c r="C21" s="19">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="19">
+        <v>650</v>
+      </c>
+      <c r="C22" s="19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19">
+        <v>2600</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1600</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="19">
+        <v>5500</v>
+      </c>
+      <c r="C26" s="19">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1350</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="19">
+        <v>1800</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="19">
+        <v>400</v>
+      </c>
+      <c r="C31" s="19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="19">
+        <v>1200</v>
+      </c>
+      <c r="C32" s="19">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1400</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="19">
+        <v>7500</v>
+      </c>
+      <c r="C34" s="19">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="19">
+        <v>2500</v>
+      </c>
+      <c r="C35" s="19">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1500</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="19">
+        <v>4000</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="19">
+        <v>650</v>
+      </c>
+      <c r="C38" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="19">
+        <v>200</v>
+      </c>
+      <c r="C42" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="19">
+        <v>800</v>
+      </c>
+      <c r="C43" s="19">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="19">
+        <v>700</v>
+      </c>
+      <c r="C45" s="19">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A47" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="19">
+        <v>9700</v>
+      </c>
+      <c r="C47" s="19">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="19">
+        <v>600</v>
+      </c>
+      <c r="C48" s="19">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A49" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="19">
+        <v>150</v>
+      </c>
+      <c r="C49" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A51" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="19">
+        <v>250</v>
+      </c>
+      <c r="C51" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="19">
+        <v>1550</v>
+      </c>
+      <c r="C52" s="19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A54" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="19">
+        <v>450</v>
+      </c>
+      <c r="C54" s="19">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A55" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="19">
+        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
+        <v>195</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A58" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="19">
+        <v>550</v>
+      </c>
+      <c r="C58" s="19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="19">
+        <v>4000</v>
+      </c>
+      <c r="C60" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="19">
+        <v>1500</v>
+      </c>
+      <c r="C61" s="19">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="19">
+        <v>1450</v>
+      </c>
+      <c r="C62" s="19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A63" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="19">
+        <v>650</v>
+      </c>
+      <c r="C64" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A65" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A66" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="19">
+        <v>550</v>
+      </c>
+      <c r="C66" s="19">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A67" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="19">
+        <v>550</v>
+      </c>
+      <c r="C67" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A68" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A69" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="19">
+        <v>1400</v>
+      </c>
+      <c r="C69" s="19">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A70" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="19">
+        <v>1750</v>
+      </c>
+      <c r="C70" s="19">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A71" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="19">
+        <v>1700</v>
+      </c>
+      <c r="C71" s="19">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A72" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="19">
+        <v>2500</v>
+      </c>
+      <c r="C72" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A73" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="19">
+        <v>800</v>
+      </c>
+      <c r="C73" s="19">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A74" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A75" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="19">
+        <v>1700</v>
+      </c>
+      <c r="C75" s="19">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A76" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="19">
+        <v>1150</v>
+      </c>
+      <c r="C76" s="19">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A77" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="19">
+        <v>3400</v>
+      </c>
+      <c r="C77" s="19">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A78" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="19">
+        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
+        <v>1560</v>
+      </c>
+      <c r="C78" s="19">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A79" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="19">
+        <v>1150</v>
+      </c>
+      <c r="C79" s="19">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A80" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="19">
+        <v>300</v>
+      </c>
+      <c r="C80" s="19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A81" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="19">
+        <v>5500</v>
+      </c>
+      <c r="C81" s="19">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A82" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A83" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="19">
+        <v>3500</v>
+      </c>
+      <c r="C83" s="19">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A84" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="19">
+        <v>650</v>
+      </c>
+      <c r="C84" s="19">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A85" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="19">
+        <v>2200</v>
+      </c>
+      <c r="C85" s="19">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A86" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A87" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A88" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A89" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A90" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A91" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="19">
+        <v>700</v>
+      </c>
+      <c r="C91" s="19">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A92" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="19">
+        <v>300</v>
+      </c>
+      <c r="C92" s="19"/>
+    </row>
+    <row r="93" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A93" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="19">
+        <v>1950</v>
+      </c>
+      <c r="C93" s="19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A94" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="19">
+        <v>400</v>
+      </c>
+      <c r="C94" s="19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A95" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="19">
+        <v>450</v>
+      </c>
+      <c r="C95" s="19">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A96" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="19">
+        <v>1200</v>
+      </c>
+      <c r="C96" s="19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A97" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="19">
+        <v>4900</v>
+      </c>
+      <c r="C97" s="19">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A98" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="19">
+        <v>1650</v>
+      </c>
+      <c r="C98" s="19">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A99" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="19">
+        <v>1550</v>
+      </c>
+      <c r="C99" s="19">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A100" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A101" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A102" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A103" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A104" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A105" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A106" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A107" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A108" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="19">
+        <v>5000</v>
+      </c>
+      <c r="C108" s="19">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A109" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="19">
+        <v>2800</v>
+      </c>
+      <c r="C109" s="19">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A110" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="19">
+        <v>600</v>
+      </c>
+      <c r="C110" s="19">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A111" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A112" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="19">
+        <v>600</v>
+      </c>
+      <c r="C112" s="19">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A113" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" s="19">
+        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
+        <v>3640</v>
+      </c>
+      <c r="C113" s="19">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A114" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A115" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="19">
+        <v>500</v>
+      </c>
+      <c r="C115" s="19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A116" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="19">
+        <v>4500</v>
+      </c>
+      <c r="C116" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A117" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="19">
+        <v>1800</v>
+      </c>
+      <c r="C117" s="19">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A118" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" s="19">
+        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
+        <v>487.5</v>
+      </c>
+      <c r="C118" s="19">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A119" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="19">
+        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
+        <v>565.5</v>
+      </c>
+      <c r="C119" s="19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A120" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A121" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121" s="19">
+        <v>2400</v>
+      </c>
+      <c r="C121" s="19">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A122" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B122" s="19">
+        <v>500</v>
+      </c>
+      <c r="C122" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A123" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A124" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124" s="19">
+        <v>6100</v>
+      </c>
+      <c r="C124" s="19">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A125" s="19"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+    </row>
+    <row r="126" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A126" s="19"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+    </row>
+    <row r="127" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A127" s="19"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+    </row>
+    <row r="128" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A128" s="19"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+    </row>
+    <row r="129" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A129" s="19"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+    </row>
+    <row r="130" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A130" s="19"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+    </row>
+    <row r="131" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A131" s="19"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+    </row>
+    <row r="132" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A132" s="19"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+    </row>
+    <row r="133" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A133" s="19"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+    </row>
+    <row r="134" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A134" s="19"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+    </row>
+    <row r="135" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A135" s="19"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+    </row>
+    <row r="136" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A136" s="19"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+    </row>
+    <row r="137" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A137" s="19"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+    </row>
+    <row r="138" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A138" s="19"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+    </row>
+    <row r="139" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A139" s="19"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+    </row>
+    <row r="140" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A140" s="19"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+    </row>
+    <row r="141" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A141" s="19"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="7.874015748031496E-2" bottom="0.15748031496062992" header="3.937007874015748E-2" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="184">
   <si>
     <t>produit</t>
   </si>
@@ -1479,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -6313,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,7 +6439,9 @@
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="19">
+        <v>2000</v>
+      </c>
       <c r="C11" s="19">
         <v>1600</v>
       </c>
@@ -6514,7 +6516,9 @@
       <c r="A18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>1500</v>
+      </c>
       <c r="C18" s="19">
         <v>1230</v>
       </c>
@@ -6523,7 +6527,9 @@
       <c r="A19" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="19">
+        <v>900</v>
+      </c>
       <c r="C19" s="19">
         <v>665</v>
       </c>
@@ -6565,8 +6571,8 @@
       <c r="A23" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>182</v>
+      <c r="B23" s="19">
+        <v>1850</v>
       </c>
       <c r="C23" s="19">
         <v>0</v>
@@ -6737,7 +6743,9 @@
       <c r="A39" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="19">
+        <v>1700</v>
+      </c>
       <c r="C39" s="19">
         <v>1350</v>
       </c>
@@ -6746,7 +6754,9 @@
       <c r="A40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="19">
+        <v>900</v>
+      </c>
       <c r="C40" s="19">
         <v>735</v>
       </c>
@@ -6755,7 +6765,9 @@
       <c r="A41" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="19">
+        <v>550</v>
+      </c>
       <c r="C41" s="19">
         <v>290</v>
       </c>
@@ -6786,7 +6798,9 @@
       <c r="A44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="19"/>
+      <c r="B44" s="19">
+        <v>2400</v>
+      </c>
       <c r="C44" s="19">
         <v>1980</v>
       </c>
@@ -6806,7 +6820,9 @@
       <c r="A46" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="19">
+        <v>750</v>
+      </c>
       <c r="C46" s="19">
         <v>500</v>
       </c>
@@ -6900,11 +6916,10 @@
         <v>175</v>
       </c>
       <c r="B55" s="19">
-        <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
-        <v>195</v>
+        <v>1300</v>
       </c>
       <c r="C55" s="19">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -6940,7 +6955,9 @@
       <c r="A59" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="19">
+        <v>1500</v>
+      </c>
       <c r="C59" s="19">
         <v>1200</v>
       </c>
@@ -6982,7 +6999,9 @@
       <c r="A63" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="19">
+        <v>1200</v>
+      </c>
       <c r="C63" s="19">
         <v>900</v>
       </c>
@@ -7002,7 +7021,9 @@
       <c r="A65" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="19">
+        <v>650</v>
+      </c>
       <c r="C65" s="19">
         <v>210</v>
       </c>
@@ -7012,7 +7033,7 @@
         <v>116</v>
       </c>
       <c r="B66" s="19">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="C66" s="19">
         <v>410</v>
@@ -7023,7 +7044,7 @@
         <v>102</v>
       </c>
       <c r="B67" s="19">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="C67" s="19">
         <v>200</v>
@@ -7033,7 +7054,9 @@
       <c r="A68" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="19">
+        <v>1500</v>
+      </c>
       <c r="C68" s="19">
         <v>1210</v>
       </c>
@@ -7097,7 +7120,9 @@
       <c r="A74" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="19">
+        <v>1200</v>
+      </c>
       <c r="C74" s="19">
         <v>850</v>
       </c>
@@ -7184,7 +7209,9 @@
       <c r="A82" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="19">
+        <v>1300</v>
+      </c>
       <c r="C82" s="19">
         <v>1020</v>
       </c>
@@ -7226,7 +7253,9 @@
       <c r="A86" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="19"/>
+      <c r="B86" s="19">
+        <v>1500</v>
+      </c>
       <c r="C86" s="19">
         <v>1040</v>
       </c>
@@ -7235,7 +7264,9 @@
       <c r="A87" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="19">
+        <v>600</v>
+      </c>
       <c r="C87" s="19">
         <v>375</v>
       </c>
@@ -7244,7 +7275,9 @@
       <c r="A88" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="19"/>
+      <c r="B88" s="19">
+        <v>600</v>
+      </c>
       <c r="C88" s="19">
         <v>435</v>
       </c>
@@ -7253,7 +7286,9 @@
       <c r="A89" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="19">
+        <v>600</v>
+      </c>
       <c r="C89" s="19">
         <v>310</v>
       </c>
@@ -7262,7 +7297,9 @@
       <c r="A90" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B90" s="19"/>
+      <c r="B90" s="19">
+        <v>1150</v>
+      </c>
       <c r="C90" s="19">
         <v>728</v>
       </c>
@@ -7368,7 +7405,9 @@
       <c r="A100" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="19"/>
+      <c r="B100" s="19">
+        <v>300</v>
+      </c>
       <c r="C100" s="19">
         <v>2250</v>
       </c>
@@ -7377,7 +7416,9 @@
       <c r="A101" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B101" s="19"/>
+      <c r="B101" s="19">
+        <v>500</v>
+      </c>
       <c r="C101" s="19">
         <v>380</v>
       </c>
@@ -7386,7 +7427,9 @@
       <c r="A102" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="19"/>
+      <c r="B102" s="19">
+        <v>950</v>
+      </c>
       <c r="C102" s="19">
         <v>805</v>
       </c>
@@ -7395,7 +7438,9 @@
       <c r="A103" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="19">
+        <v>150</v>
+      </c>
       <c r="C103" s="19">
         <v>80</v>
       </c>
@@ -7404,7 +7449,9 @@
       <c r="A104" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="19"/>
+      <c r="B104" s="19">
+        <v>250</v>
+      </c>
       <c r="C104" s="19">
         <v>180</v>
       </c>
@@ -7413,7 +7460,9 @@
       <c r="A105" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="19">
+        <v>1000</v>
+      </c>
       <c r="C105" s="19">
         <v>700</v>
       </c>
@@ -7422,7 +7471,9 @@
       <c r="A106" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="19"/>
+      <c r="B106" s="19">
+        <v>1200</v>
+      </c>
       <c r="C106" s="19">
         <v>800</v>
       </c>
@@ -7431,7 +7482,9 @@
       <c r="A107" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="19"/>
+      <c r="B107" s="19">
+        <v>1600</v>
+      </c>
       <c r="C107" s="19">
         <v>1240</v>
       </c>
@@ -7473,7 +7526,9 @@
       <c r="A111" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B111" s="19"/>
+      <c r="B111" s="19">
+        <v>2500</v>
+      </c>
       <c r="C111" s="19">
         <v>1380</v>
       </c>
@@ -7505,7 +7560,9 @@
       <c r="A114" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="19"/>
+      <c r="B114" s="19">
+        <v>0</v>
+      </c>
       <c r="C114" s="19">
         <v>750</v>
       </c>
@@ -7571,7 +7628,9 @@
       <c r="A120" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="19">
+        <v>2150</v>
+      </c>
       <c r="C120" s="19">
         <v>1850</v>
       </c>
@@ -7602,7 +7661,9 @@
       <c r="A123" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B123" s="19"/>
+      <c r="B123" s="19">
+        <v>1900</v>
+      </c>
       <c r="C123" s="19">
         <v>1450</v>
       </c>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -6313,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A109" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,7 +6583,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="19">
-        <v>2600</v>
+        <v>2350</v>
       </c>
       <c r="C24" s="19">
         <v>1650</v>
@@ -7527,7 +7527,7 @@
         <v>69</v>
       </c>
       <c r="B111" s="19">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C111" s="19">
         <v>1380</v>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="186">
   <si>
     <t>produit</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>BAYMEC 50 ml</t>
+  </si>
+  <si>
+    <t>virosept 51</t>
+  </si>
+  <si>
+    <t>dexaspein fort</t>
   </si>
 </sst>
 </file>
@@ -1479,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5940,22 +5946,26 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A176" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="B176" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
-        <v>0</v>
+        <v>4342</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
+      <c r="F176" s="2">
+        <v>3340</v>
+      </c>
       <c r="G176" s="11">
         <f>MAX(C176,D176,E176,F176)</f>
-        <v>0</v>
+        <v>3340</v>
       </c>
       <c r="H176" s="12">
         <f>MIN(C176:F176)</f>
-        <v>0</v>
+        <v>3340</v>
       </c>
       <c r="I176" s="3">
         <f>G176-H176</f>
@@ -5963,22 +5973,26 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A177" s="2"/>
+      <c r="A177" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="B177" s="2">
         <f>Tableau3[[#This Row],[max]]+Tableau3[[#This Row],[max]]*0.3</f>
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="F177" s="2">
+        <v>630</v>
+      </c>
       <c r="G177" s="11">
         <f>MAX(C177,D177,E177,F177)</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="H177" s="12">
         <f>MIN(C177:F177)</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I177" s="3">
         <f>G177-H177</f>
@@ -6313,7 +6327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
